--- a/_data/faculty.xlsx
+++ b/_data/faculty.xlsx
@@ -133,9 +133,6 @@
     <t>Assistant Professor</t>
   </si>
   <si>
-    <t>daniel.aukes@asu.edu</t>
-  </si>
-  <si>
     <t>POLY</t>
   </si>
   <si>
@@ -785,6 +782,9 @@
   </si>
   <si>
     <t>Gil</t>
+  </si>
+  <si>
+    <t>danaukes@asu.edu</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1781,43 +1781,43 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>43</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>44</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>45</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>46</v>
-      </c>
-      <c r="N4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1827,42 +1827,42 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>51</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>52</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>56</v>
-      </c>
-      <c r="N5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1872,7 +1872,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -1881,33 +1881,33 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
         <v>61</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>62</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>63</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>64</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>65</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>66</v>
-      </c>
-      <c r="N6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
         <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1917,42 +1917,42 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
         <v>70</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
         <v>71</v>
       </c>
-      <c r="G7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>72</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>73</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>74</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>75</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>76</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>77</v>
-      </c>
-      <c r="N7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
         <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -1962,7 +1962,7 @@
         <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -1971,33 +1971,33 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
         <v>82</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>83</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>84</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>85</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>86</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>87</v>
-      </c>
-      <c r="N8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
         <v>89</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -2007,42 +2007,42 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
         <v>91</v>
       </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>92</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>93</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>94</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>95</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>96</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>97</v>
-      </c>
-      <c r="N9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
         <v>99</v>
-      </c>
-      <c r="B10" t="s">
-        <v>100</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -2052,84 +2052,84 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
         <v>101</v>
       </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>102</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>103</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>104</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>105</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>106</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>107</v>
-      </c>
-      <c r="N10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
         <v>109</v>
-      </c>
-      <c r="B11" t="s">
-        <v>110</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>Pauline Davies</v>
       </c>
       <c r="D11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s">
         <v>111</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>112</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>113</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>114</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>115</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>116</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>117</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>118</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>119</v>
-      </c>
-      <c r="N11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
         <v>121</v>
-      </c>
-      <c r="B12" t="s">
-        <v>122</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -2139,52 +2139,52 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
         <v>123</v>
       </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>124</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>125</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>126</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>127</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>128</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>129</v>
-      </c>
-      <c r="N12" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
         <v>131</v>
-      </c>
-      <c r="B13" t="s">
-        <v>132</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>Subbarao Kambhampati</v>
       </c>
       <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
         <v>133</v>
-      </c>
-      <c r="E13" t="s">
-        <v>134</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -2193,30 +2193,30 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
         <v>135</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>136</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s">
         <v>137</v>
       </c>
-      <c r="L13" t="s">
-        <v>135</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>138</v>
-      </c>
-      <c r="N13" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
         <v>140</v>
-      </c>
-      <c r="B14" t="s">
-        <v>141</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -2226,7 +2226,7 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -2235,88 +2235,88 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" t="s">
         <v>143</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>144</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>145</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>146</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>147</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>148</v>
-      </c>
-      <c r="N14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
         <v>150</v>
-      </c>
-      <c r="B15" t="s">
-        <v>151</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>Thomas Sugar</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
         <v>152</v>
       </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>153</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>154</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>155</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>156</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>157</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>158</v>
-      </c>
-      <c r="N15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" t="s">
         <v>160</v>
-      </c>
-      <c r="B16" t="s">
-        <v>161</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>Thurmon Lockhart</v>
       </c>
       <c r="D16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" t="s">
         <v>162</v>
-      </c>
-      <c r="E16" t="s">
-        <v>163</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
@@ -2325,33 +2325,33 @@
         <v>28</v>
       </c>
       <c r="H16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16" t="s">
         <v>164</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>165</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>166</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>167</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>168</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>169</v>
-      </c>
-      <c r="N16" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s">
         <v>171</v>
-      </c>
-      <c r="B17" t="s">
-        <v>172</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -2361,42 +2361,42 @@
         <v>38</v>
       </c>
       <c r="E17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
         <v>173</v>
       </c>
-      <c r="F17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>174</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>175</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>176</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>177</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>178</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>179</v>
-      </c>
-      <c r="N17" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" t="s">
         <v>181</v>
-      </c>
-      <c r="B18" t="s">
-        <v>182</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -2406,7 +2406,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2415,33 +2415,33 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I18" t="s">
         <v>184</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>185</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>186</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>187</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>188</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>189</v>
-      </c>
-      <c r="N18" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" t="s">
         <v>191</v>
-      </c>
-      <c r="B19" t="s">
-        <v>192</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -2451,52 +2451,52 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s">
         <v>193</v>
       </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>194</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>195</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>196</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>197</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>198</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>199</v>
-      </c>
-      <c r="N19" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s">
         <v>201</v>
-      </c>
-      <c r="B20" t="s">
-        <v>202</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>Yinong Chen</v>
       </c>
       <c r="D20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" t="s">
         <v>203</v>
-      </c>
-      <c r="E20" t="s">
-        <v>204</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -2505,33 +2505,33 @@
         <v>18</v>
       </c>
       <c r="H20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" t="s">
         <v>205</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>206</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>207</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>208</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>209</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>210</v>
-      </c>
-      <c r="N20" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -2541,7 +2541,7 @@
         <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -2550,33 +2550,33 @@
         <v>18</v>
       </c>
       <c r="H21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" t="s">
         <v>214</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>215</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>216</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>217</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>218</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>219</v>
-      </c>
-      <c r="N21" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" t="s">
         <v>221</v>
-      </c>
-      <c r="B22" t="s">
-        <v>222</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -2586,7 +2586,7 @@
         <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -2595,33 +2595,33 @@
         <v>18</v>
       </c>
       <c r="H22" t="s">
+        <v>223</v>
+      </c>
+      <c r="I22" t="s">
         <v>224</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>225</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>226</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>227</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>228</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>229</v>
-      </c>
-      <c r="N22" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" t="s">
         <v>231</v>
-      </c>
-      <c r="B23" t="s">
-        <v>232</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -2631,87 +2631,87 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s">
         <v>233</v>
       </c>
-      <c r="F23" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>234</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>235</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>236</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>237</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>238</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>239</v>
-      </c>
-      <c r="N23" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" t="s">
         <v>241</v>
-      </c>
-      <c r="B24" t="s">
-        <v>242</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>Lina Karam</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" t="s">
         <v>243</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
+        <v>243</v>
+      </c>
+      <c r="H24" t="s">
         <v>244</v>
       </c>
-      <c r="G24" t="s">
-        <v>244</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>245</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>246</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>247</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>248</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>249</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>250</v>
-      </c>
-      <c r="N24" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -2721,7 +2721,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -2730,16 +2730,17 @@
         <v>18</v>
       </c>
       <c r="J25" t="s">
+        <v>253</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1"/>
     <hyperlink ref="K25" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_data/faculty.xlsx
+++ b/_data/faculty.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daukes\websites\website_asurobotics\_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A2D5FC2-5E9D-47CD-98F4-BC291C17C6E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="50" windowWidth="19140" windowHeight="18090"/>
+    <workbookView xWindow="4935" yWindow="4935" windowWidth="43200" windowHeight="23655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="faculty" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="247">
   <si>
     <t>first_name</t>
   </si>
@@ -310,36 +324,6 @@
     <t>ankle impedance1.jpg</t>
   </si>
   <si>
-    <t>Panos</t>
-  </si>
-  <si>
-    <t>Artemiadis</t>
-  </si>
-  <si>
-    <t>panagiotis.artemiadis@asu.edu</t>
-  </si>
-  <si>
-    <t>Research in the areas of robotics, control systems, human-robot interaction, system identification, brain-machine interfaces, rehabilitation robotics, neuro-robotics, prosthetics, orthotics and human motor control.</t>
-  </si>
-  <si>
-    <t>Controls,Neural,Bio-robotics,Dynamics,Mechatronics</t>
-  </si>
-  <si>
-    <t>Human-Oriented Robotics and Control (HORC) Lab</t>
-  </si>
-  <si>
-    <t>http://horc.engineering.asu.edu</t>
-  </si>
-  <si>
-    <t>The mission of the HORC Lab is to improve the quality of life by developing and controlling robotic devices that physically and cognitively interact and collaborate with humans.</t>
-  </si>
-  <si>
-    <t>Panagiotis Artemiadis.jpg</t>
-  </si>
-  <si>
-    <t>Artemiadis1.JPG</t>
-  </si>
-  <si>
     <t>Pauline</t>
   </si>
   <si>
@@ -715,9 +699,6 @@
     <t>szyong@asu.edu</t>
   </si>
   <si>
-    <t>Research onÂ control, estimation, identification and analysis ofÂ autonomous multi-agent systems,Â intelligent robots and cyber-physical systems with a focus on reliability, robustness, security and safety.</t>
-  </si>
-  <si>
     <t>AI-and-learning,Controls,Dynamics,Human-Robot</t>
   </si>
   <si>
@@ -785,12 +766,15 @@
   </si>
   <si>
     <t>danaukes@asu.edu</t>
+  </si>
+  <si>
+    <t>Research on control, estimation, identification and analysis of autonomous multi-agent systems, intelligent robots and cyber-physical systems with a focus on reliability, robustness, security and safety.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1333,6 +1317,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1380,7 +1367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1413,9 +1400,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1448,6 +1452,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1623,20 +1644,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="218.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1722,7 +1744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1730,7 +1752,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C25" si="0">A3&amp;" "&amp;B3</f>
+        <f t="shared" ref="C3:C24" si="0">A3&amp;" "&amp;B3</f>
         <v>Christopher Buneo</v>
       </c>
       <c r="D3" t="s">
@@ -1767,7 +1789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1782,7 +1804,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1812,7 +1834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1857,7 +1879,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1902,7 +1924,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1947,7 +1969,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -1992,7 +2014,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -2037,7 +2059,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -2046,72 +2068,72 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>Panos Artemiadis</v>
+        <v>Pauline Davies</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>Pauline Davies</v>
+        <v>Spring Berman</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
         <v>113</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>114</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>115</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>116</v>
       </c>
       <c r="L11" t="s">
@@ -2124,7 +2146,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -2133,24 +2155,21 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>Spring Berman</v>
+        <v>Subbarao Kambhampati</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" t="s">
         <v>124</v>
       </c>
       <c r="J12" t="s">
@@ -2160,31 +2179,31 @@
         <v>126</v>
       </c>
       <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="s">
         <v>127</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>128</v>
       </c>
-      <c r="N12" t="s">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>130</v>
-      </c>
-      <c r="B13" t="s">
-        <v>131</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>Subbarao Kambhampati</v>
+        <v>Theodore (Ted) Pavlic</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -2193,16 +2212,19 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
         <v>134</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>135</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>136</v>
-      </c>
-      <c r="L13" t="s">
-        <v>134</v>
       </c>
       <c r="M13" t="s">
         <v>137</v>
@@ -2211,7 +2233,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>139</v>
       </c>
@@ -2220,19 +2242,19 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>Theodore (Ted) Pavlic</v>
+        <v>Thomas Sugar</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
         <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
         <v>142</v>
@@ -2256,7 +2278,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -2265,64 +2287,64 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>Thomas Sugar</v>
+        <v>Thurmon Lockhart</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>Thurmon Lockhart</v>
+        <v>Wenlong Zhang</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
         <v>162</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
         <v>163</v>
@@ -2346,7 +2368,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -2355,7 +2377,7 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>Wenlong Zhang</v>
+        <v>Yezhou Yang</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
@@ -2364,10 +2386,10 @@
         <v>172</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
         <v>173</v>
@@ -2391,7 +2413,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>180</v>
       </c>
@@ -2400,7 +2422,7 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>Yezhou Yang</v>
+        <v>Yi (Max) Ren</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -2409,10 +2431,10 @@
         <v>182</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s">
         <v>183</v>
@@ -2436,7 +2458,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>190</v>
       </c>
@@ -2445,58 +2467,58 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>Yi (Max) Ren</v>
+        <v>Yinong Chen</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>Yinong Chen</v>
+        <v>Yu(Tony) Zhang</v>
       </c>
       <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
         <v>202</v>
-      </c>
-      <c r="E20" t="s">
-        <v>203</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -2505,37 +2527,37 @@
         <v>18</v>
       </c>
       <c r="H20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" t="s">
         <v>204</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>205</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>206</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>207</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>208</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>209</v>
       </c>
-      <c r="N20" t="s">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>211</v>
-      </c>
-      <c r="B21" t="s">
-        <v>171</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>Yu(Tony) Zhang</v>
+        <v>Siddharth Srivastava</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
@@ -2571,7 +2593,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>220</v>
       </c>
@@ -2580,7 +2602,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>Siddharth Srivastava</v>
+        <v>Sze Zheng Yong</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -2589,55 +2611,55 @@
         <v>222</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
+        <v>246</v>
+      </c>
+      <c r="I22" t="s">
         <v>223</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>224</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>225</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>226</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>227</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>228</v>
       </c>
-      <c r="N22" t="s">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>230</v>
-      </c>
-      <c r="B23" t="s">
-        <v>231</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>Sze Zheng Yong</v>
+        <v>Lina Karam</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" t="s">
         <v>232</v>
       </c>
-      <c r="F23" t="s">
-        <v>70</v>
-      </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="H23" t="s">
         <v>233</v>
@@ -2661,86 +2683,41 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>240</v>
       </c>
       <c r="B24" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>Lina Karam</v>
+        <v>Stephanie Gil</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
         <v>242</v>
       </c>
-      <c r="F24" t="s">
+      <c r="K24" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="G24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H24" t="s">
-        <v>244</v>
-      </c>
-      <c r="I24" t="s">
-        <v>245</v>
-      </c>
-      <c r="J24" t="s">
-        <v>246</v>
-      </c>
-      <c r="K24" t="s">
-        <v>247</v>
-      </c>
-      <c r="L24" t="s">
-        <v>248</v>
-      </c>
-      <c r="M24" t="s">
-        <v>249</v>
-      </c>
-      <c r="N24" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>251</v>
-      </c>
-      <c r="B25" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>Stephanie Gil</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" t="s">
-        <v>253</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E25" r:id="rId1"/>
-    <hyperlink ref="K25" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K24" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_data/faculty.xlsx
+++ b/_data/faculty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daukes\websites\website_asurobotics\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\website_asurobotics\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A2D5FC2-5E9D-47CD-98F4-BC291C17C6E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565570F5-3340-448E-9736-A0842C85B55C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="4935" windowWidth="43200" windowHeight="23655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="faculty" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="254">
   <si>
     <t>first_name</t>
   </si>
@@ -769,13 +769,34 @@
   </si>
   <si>
     <t>Research on control, estimation, identification and analysis of autonomous multi-agent systems, intelligent robots and cyber-physical systems with a focus on reliability, robustness, security and safety.</t>
+  </si>
+  <si>
+    <t>Sangram</t>
+  </si>
+  <si>
+    <t>Redkar</t>
+  </si>
+  <si>
+    <t>sredkar@asu.edu</t>
+  </si>
+  <si>
+    <t>We work in dynamics and control of robots and physiological sensing</t>
+  </si>
+  <si>
+    <t>redkar.png</t>
+  </si>
+  <si>
+    <t>redkar-lab.jpg</t>
+  </si>
+  <si>
+    <t>Lifelong learner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,6 +939,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1262,9 +1304,18 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1645,1080 +1696,1140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="218.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="75" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="40.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="80.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="str">
+    <row r="2" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="str">
         <f>A2&amp;" "&amp;B2</f>
-        <v>Aviral Shrivastava</v>
-      </c>
-      <c r="D2" t="s">
+        <v>Daniel Aukes</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>A3&amp;" "&amp;B3</f>
+        <v>Heni Ben Amor</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>A4&amp;" "&amp;B4</f>
+        <v>Spring Berman</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>A5&amp;" "&amp;B5</f>
+        <v>Christopher Buneo</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>A6&amp;" "&amp;B6</f>
+        <v>Yinong Chen</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
+      <c r="H6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C24" si="0">A3&amp;" "&amp;B3</f>
-        <v>Christopher Buneo</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>A7&amp;" "&amp;B7</f>
+        <v>Erin Chiou</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>A8&amp;" "&amp;B8</f>
+        <v>Pauline Davies</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>A9&amp;" "&amp;B9</f>
+        <v>Georgios Fainekos</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>Daniel Aukes</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>Erin Chiou</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>Georgios Fainekos</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N9" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>Hamid Marvi</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>Heni Ben Amor</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>Hyunglae Lee</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>Pauline Davies</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" t="s">
-        <v>108</v>
-      </c>
-      <c r="N10" t="s">
-        <v>109</v>
+      <c r="A10" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>A10&amp;" "&amp;B10</f>
+        <v>Stephanie Gil</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>Spring Berman</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>A11&amp;" "&amp;B11</f>
+        <v>Subbarao Kambhampati</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>A12&amp;" "&amp;B12</f>
+        <v>Lina Karam</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>A13&amp;" "&amp;B13</f>
+        <v>Hyunglae Lee</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>A14&amp;" "&amp;B14</f>
+        <v>Thurmon Lockhart</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>A15&amp;" "&amp;B15</f>
+        <v>Hamid Marvi</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>A16&amp;" "&amp;B16</f>
+        <v>Theodore (Ted) Pavlic</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>A17&amp;" "&amp;B17</f>
+        <v>Yi (Max) Ren</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>A18&amp;" "&amp;B18</f>
+        <v>Aviral Shrivastava</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>A19&amp;" "&amp;B19</f>
+        <v>Siddharth Srivastava</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>A20&amp;" "&amp;B20</f>
+        <v>Thomas Sugar</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>A21&amp;" "&amp;B21</f>
+        <v>Yezhou Yang</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>A22&amp;" "&amp;B22</f>
+        <v>Sze Zheng Yong</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" t="s">
-        <v>118</v>
-      </c>
-      <c r="N11" t="s">
-        <v>119</v>
+      <c r="H22" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>Subbarao Kambhampati</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" t="s">
+    <row r="23" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>A23&amp;" "&amp;B23</f>
+        <v>Wenlong Zhang</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>A24&amp;" "&amp;B24</f>
+        <v>Yu(Tony) Zhang</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H12" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" t="s">
-        <v>124</v>
-      </c>
-      <c r="M12" t="s">
-        <v>127</v>
-      </c>
-      <c r="N12" t="s">
-        <v>128</v>
+      <c r="H24" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>Theodore (Ted) Pavlic</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" t="s">
-        <v>136</v>
-      </c>
-      <c r="M13" t="s">
-        <v>137</v>
-      </c>
-      <c r="N13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>Thomas Sugar</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>A25&amp;" "&amp;B25</f>
+        <v>Sangram Redkar</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H14" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H25" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J25" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L14" t="s">
-        <v>146</v>
-      </c>
-      <c r="M14" t="s">
-        <v>147</v>
-      </c>
-      <c r="N14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>Thurmon Lockhart</v>
-      </c>
-      <c r="D15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" t="s">
-        <v>154</v>
-      </c>
-      <c r="J15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" t="s">
-        <v>156</v>
-      </c>
-      <c r="L15" t="s">
-        <v>157</v>
-      </c>
-      <c r="M15" t="s">
-        <v>158</v>
-      </c>
-      <c r="N15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>Wenlong Zhang</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" t="s">
-        <v>164</v>
-      </c>
-      <c r="J16" t="s">
-        <v>165</v>
-      </c>
-      <c r="K16" t="s">
-        <v>166</v>
-      </c>
-      <c r="L16" t="s">
-        <v>167</v>
-      </c>
-      <c r="M16" t="s">
-        <v>168</v>
-      </c>
-      <c r="N16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>Yezhou Yang</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>173</v>
-      </c>
-      <c r="I17" t="s">
-        <v>174</v>
-      </c>
-      <c r="J17" t="s">
-        <v>175</v>
-      </c>
-      <c r="K17" t="s">
-        <v>176</v>
-      </c>
-      <c r="L17" t="s">
-        <v>177</v>
-      </c>
-      <c r="M17" t="s">
-        <v>178</v>
-      </c>
-      <c r="N17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>Yi (Max) Ren</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" t="s">
-        <v>183</v>
-      </c>
-      <c r="I18" t="s">
-        <v>184</v>
-      </c>
-      <c r="J18" t="s">
-        <v>185</v>
-      </c>
-      <c r="K18" t="s">
-        <v>186</v>
-      </c>
-      <c r="L18" t="s">
-        <v>187</v>
-      </c>
-      <c r="M18" t="s">
-        <v>188</v>
-      </c>
-      <c r="N18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>Yinong Chen</v>
-      </c>
-      <c r="D19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>194</v>
-      </c>
-      <c r="I19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J19" t="s">
-        <v>196</v>
-      </c>
-      <c r="K19" t="s">
-        <v>197</v>
-      </c>
-      <c r="L19" t="s">
-        <v>198</v>
-      </c>
-      <c r="M19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>201</v>
-      </c>
-      <c r="B20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>Yu(Tony) Zhang</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>202</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>203</v>
-      </c>
-      <c r="I20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J20" t="s">
-        <v>205</v>
-      </c>
-      <c r="K20" t="s">
-        <v>206</v>
-      </c>
-      <c r="L20" t="s">
-        <v>207</v>
-      </c>
-      <c r="M20" t="s">
-        <v>208</v>
-      </c>
-      <c r="N20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>Siddharth Srivastava</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>213</v>
-      </c>
-      <c r="I21" t="s">
-        <v>214</v>
-      </c>
-      <c r="J21" t="s">
-        <v>215</v>
-      </c>
-      <c r="K21" t="s">
-        <v>216</v>
-      </c>
-      <c r="L21" t="s">
-        <v>217</v>
-      </c>
-      <c r="M21" t="s">
-        <v>218</v>
-      </c>
-      <c r="N21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>220</v>
-      </c>
-      <c r="B22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>Sze Zheng Yong</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" t="s">
-        <v>246</v>
-      </c>
-      <c r="I22" t="s">
-        <v>223</v>
-      </c>
-      <c r="J22" t="s">
-        <v>224</v>
-      </c>
-      <c r="K22" t="s">
-        <v>225</v>
-      </c>
-      <c r="L22" t="s">
-        <v>226</v>
-      </c>
-      <c r="M22" t="s">
-        <v>227</v>
-      </c>
-      <c r="N22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>Lina Karam</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" t="s">
-        <v>231</v>
-      </c>
-      <c r="F23" t="s">
-        <v>232</v>
-      </c>
-      <c r="G23" t="s">
-        <v>232</v>
-      </c>
-      <c r="H23" t="s">
-        <v>233</v>
-      </c>
-      <c r="I23" t="s">
-        <v>234</v>
-      </c>
-      <c r="J23" t="s">
-        <v>235</v>
-      </c>
-      <c r="K23" t="s">
-        <v>236</v>
-      </c>
-      <c r="L23" t="s">
-        <v>237</v>
-      </c>
-      <c r="M23" t="s">
-        <v>238</v>
-      </c>
-      <c r="N23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>240</v>
-      </c>
-      <c r="B24" t="s">
-        <v>244</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>Stephanie Gil</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" t="s">
-        <v>242</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>243</v>
+      <c r="L25" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N24">
+    <sortCondition ref="B2:B24"/>
+    <sortCondition ref="A2:A24"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="E24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K24" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
--- a/_data/faculty.xlsx
+++ b/_data/faculty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\website_asurobotics\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565570F5-3340-448E-9736-A0842C85B55C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF20ABB-F96C-449A-A1AD-8694A293C490}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="faculty" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="262">
   <si>
     <t>first_name</t>
   </si>
@@ -790,6 +790,30 @@
   </si>
   <si>
     <t>Lifelong learner</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>McDaniel</t>
+  </si>
+  <si>
+    <t>troy.mcdaniel@asu.edu</t>
+  </si>
+  <si>
+    <t>Develop haptic interfaces for human augmentation, sensory substitution, and multimodal integration. Application interests include assistive technology for individuals with disabilities, rehabilitation, and health and wellness.</t>
+  </si>
+  <si>
+    <t>AI-and-learning,Design,Human-Robot,Mechatronics,Vision</t>
+  </si>
+  <si>
+    <t>HAPT-X Laboratory</t>
+  </si>
+  <si>
+    <t>The HAPT-X Laboratory at Arizona State University is an interdisciplinary research laboratory exploring state-of-the-art haptic interfaces for human augmentation, sensory substitution, and multimodal integration. Our application focuses include assistive technology for individuals with disabilities, rehabilitation, and health and wellness.</t>
+  </si>
+  <si>
+    <t>mcdaniel.jpg</t>
   </si>
 </sst>
 </file>
@@ -1696,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="L3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1771,7 +1795,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>A2&amp;" "&amp;B2</f>
+        <f t="shared" ref="C2:C26" si="0">A2&amp;" "&amp;B2</f>
         <v>Daniel Aukes</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1816,7 +1840,7 @@
         <v>79</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>A3&amp;" "&amp;B3</f>
+        <f t="shared" si="0"/>
         <v>Heni Ben Amor</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1861,7 +1885,7 @@
         <v>111</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>A4&amp;" "&amp;B4</f>
+        <f t="shared" si="0"/>
         <v>Spring Berman</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1906,7 +1930,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>A5&amp;" "&amp;B5</f>
+        <f t="shared" si="0"/>
         <v>Christopher Buneo</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1951,7 +1975,7 @@
         <v>191</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>A6&amp;" "&amp;B6</f>
+        <f t="shared" si="0"/>
         <v>Yinong Chen</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1996,7 +2020,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>A7&amp;" "&amp;B7</f>
+        <f t="shared" si="0"/>
         <v>Erin Chiou</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2041,7 +2065,7 @@
         <v>99</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>A8&amp;" "&amp;B8</f>
+        <f t="shared" si="0"/>
         <v>Pauline Davies</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2083,7 +2107,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>A9&amp;" "&amp;B9</f>
+        <f t="shared" si="0"/>
         <v>Georgios Fainekos</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2128,7 +2152,7 @@
         <v>244</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>A10&amp;" "&amp;B10</f>
+        <f t="shared" si="0"/>
         <v>Stephanie Gil</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2158,7 +2182,7 @@
         <v>121</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>A11&amp;" "&amp;B11</f>
+        <f t="shared" si="0"/>
         <v>Subbarao Kambhampati</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2200,7 +2224,7 @@
         <v>230</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>A12&amp;" "&amp;B12</f>
+        <f t="shared" si="0"/>
         <v>Lina Karam</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2245,7 +2269,7 @@
         <v>89</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>A13&amp;" "&amp;B13</f>
+        <f t="shared" si="0"/>
         <v>Hyunglae Lee</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2290,7 +2314,7 @@
         <v>150</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>A14&amp;" "&amp;B14</f>
+        <f t="shared" si="0"/>
         <v>Thurmon Lockhart</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2335,7 +2359,7 @@
         <v>68</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>A15&amp;" "&amp;B15</f>
+        <f t="shared" si="0"/>
         <v>Hamid Marvi</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2380,7 +2404,7 @@
         <v>130</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>A16&amp;" "&amp;B16</f>
+        <f t="shared" si="0"/>
         <v>Theodore (Ted) Pavlic</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2425,7 +2449,7 @@
         <v>181</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>A17&amp;" "&amp;B17</f>
+        <f t="shared" si="0"/>
         <v>Yi (Max) Ren</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2470,7 +2494,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>A18&amp;" "&amp;B18</f>
+        <f t="shared" si="0"/>
         <v>Aviral Shrivastava</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2512,7 +2536,7 @@
         <v>211</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>A19&amp;" "&amp;B19</f>
+        <f t="shared" si="0"/>
         <v>Siddharth Srivastava</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2557,7 +2581,7 @@
         <v>140</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>A20&amp;" "&amp;B20</f>
+        <f t="shared" si="0"/>
         <v>Thomas Sugar</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2602,7 +2626,7 @@
         <v>171</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>A21&amp;" "&amp;B21</f>
+        <f t="shared" si="0"/>
         <v>Yezhou Yang</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2647,7 +2671,7 @@
         <v>221</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>A22&amp;" "&amp;B22</f>
+        <f t="shared" si="0"/>
         <v>Sze Zheng Yong</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2692,7 +2716,7 @@
         <v>161</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>A23&amp;" "&amp;B23</f>
+        <f t="shared" si="0"/>
         <v>Wenlong Zhang</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2737,7 +2761,7 @@
         <v>161</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>A24&amp;" "&amp;B24</f>
+        <f t="shared" si="0"/>
         <v>Yu(Tony) Zhang</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2782,7 +2806,7 @@
         <v>248</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>A25&amp;" "&amp;B25</f>
+        <f t="shared" si="0"/>
         <v>Sangram Redkar</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2817,6 +2841,39 @@
       </c>
       <c r="N25" s="1" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Troy McDaniel</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/_data/faculty.xlsx
+++ b/_data/faculty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\website_asurobotics\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF20ABB-F96C-449A-A1AD-8694A293C490}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C476B6-2AFB-435E-A004-88E1F36144B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5976" windowWidth="34560" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="faculty" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="273">
   <si>
     <t>first_name</t>
   </si>
@@ -165,9 +165,6 @@
     <t>The lab's focus is to develop new tools for designing robots by pairing emerging fabrication techniques and new materials with analytical and simulation-based methods for understanding the behavior of these complex systems</t>
   </si>
   <si>
-    <t>Aukes_Daniel_1208_w.jpg</t>
-  </si>
-  <si>
     <t>DSC_0006.JPG</t>
   </si>
   <si>
@@ -814,13 +811,49 @@
   </si>
   <si>
     <t>mcdaniel.jpg</t>
+  </si>
+  <si>
+    <t>Ayan</t>
+  </si>
+  <si>
+    <t>Malik</t>
+  </si>
+  <si>
+    <t>ayan.mallik@asu.edu</t>
+  </si>
+  <si>
+    <t> Working on the design, modelling, control and optimization of power electronic converters, characterizations and applications of wide bandgap (WBG) semiconductors, highly efficient &amp; high-power density solutions for power conversions in the applications of more-electric-aircrafts, electric vehicles, wireless charging and data centers.</t>
+  </si>
+  <si>
+    <t>Design,Controls</t>
+  </si>
+  <si>
+    <t>Laboratory for Power Electronics Systems (LPES)</t>
+  </si>
+  <si>
+    <t>The objective of LPES is to perform multidimensional co-design and optimization of power electronic systems for a variety of applications such as: transportation electrification, data centers etc. We are pursuing a multi-disciplinary research agenda merging thermal and reliability constraints with power electronics design for the research problems that are attempting to achieve challenging targets for multiple performance metrics (such as: power density, efficiency, and reliability, etc).</t>
+  </si>
+  <si>
+    <t>malik.jpg</t>
+  </si>
+  <si>
+    <t>mcdaniel_lab.jpg</t>
+  </si>
+  <si>
+    <t>sgil_headshot.jpg</t>
+  </si>
+  <si>
+    <t>Daniel-Aukes.jpg</t>
+  </si>
+  <si>
+    <t>gil_lab.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,6 +1018,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1328,7 +1367,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1340,6 +1379,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1720,30 +1760,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="I9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="75" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="40.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="80.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="11" width="40.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="80.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1787,7 +1827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -1795,14 +1835,14 @@
         <v>37</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C26" si="0">A2&amp;" "&amp;B2</f>
+        <f t="shared" ref="C2:C27" si="0">A2&amp;" "&amp;B2</f>
         <v>Daniel Aukes</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>39</v>
@@ -1826,18 +1866,18 @@
         <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1847,7 +1887,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
@@ -1856,33 +1896,33 @@
         <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1892,37 +1932,37 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1967,22 +2007,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Yinong Chen</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -1991,33 +2031,33 @@
         <v>18</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>200</v>
-      </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2027,7 +2067,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>39</v>
@@ -2036,75 +2076,75 @@
         <v>39</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="8" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pauline Davies</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>109</v>
-      </c>
     </row>
-    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2114,7 +2154,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>18</v>
@@ -2123,33 +2163,33 @@
         <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2159,7 +2199,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
@@ -2168,28 +2208,34 @@
         <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>243</v>
+      <c r="M10" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Subbarao Kambhampati</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
@@ -2198,75 +2244,75 @@
         <v>18</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>128</v>
-      </c>
     </row>
-    <row r="12" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Lina Karam</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="13" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2276,52 +2322,52 @@
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>97</v>
-      </c>
     </row>
-    <row r="14" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Thurmon Lockhart</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>28</v>
@@ -2330,33 +2376,33 @@
         <v>28</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>159</v>
-      </c>
     </row>
-    <row r="15" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2366,42 +2412,42 @@
         <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="16" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2411,7 +2457,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>18</v>
@@ -2420,33 +2466,33 @@
         <v>18</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>138</v>
-      </c>
     </row>
-    <row r="17" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2456,37 +2502,37 @@
         <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>189</v>
-      </c>
     </row>
-    <row r="18" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2528,12 +2574,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2543,7 +2589,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>18</v>
@@ -2552,43 +2598,43 @@
         <v>18</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>219</v>
-      </c>
     </row>
-    <row r="20" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Thomas Sugar</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>39</v>
@@ -2597,33 +2643,33 @@
         <v>39</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>148</v>
-      </c>
     </row>
-    <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2633,7 +2679,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
@@ -2642,33 +2688,33 @@
         <v>18</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>179</v>
-      </c>
     </row>
-    <row r="22" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2678,42 +2724,42 @@
         <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>228</v>
-      </c>
     </row>
-    <row r="23" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2723,7 +2769,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>39</v>
@@ -2732,33 +2778,33 @@
         <v>39</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="24" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2768,7 +2814,7 @@
         <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>18</v>
@@ -2777,33 +2823,33 @@
         <v>18</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>209</v>
-      </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2813,7 +2859,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>39</v>
@@ -2822,33 +2868,33 @@
         <v>39</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2858,22 +2904,70 @@
         <v>38</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="L26" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="69" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>261</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Ayan Malik</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/_data/faculty.xlsx
+++ b/_data/faculty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\website_asurobotics\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C476B6-2AFB-435E-A004-88E1F36144B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A37B27E-2D78-434B-926C-8AE964EA09B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5976" windowWidth="34560" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="faculty" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="266">
   <si>
     <t>first_name</t>
   </si>
@@ -747,21 +749,6 @@
     <t>IVULabPic_Robotics.jpg</t>
   </si>
   <si>
-    <t>Stephanie</t>
-  </si>
-  <si>
-    <t>sgil4@asu.edu</t>
-  </si>
-  <si>
-    <t>REACT Lab</t>
-  </si>
-  <si>
-    <t>https://gil.engineering.asu.edu/</t>
-  </si>
-  <si>
-    <t>Gil</t>
-  </si>
-  <si>
     <t>danaukes@asu.edu</t>
   </si>
   <si>
@@ -840,13 +827,7 @@
     <t>mcdaniel_lab.jpg</t>
   </si>
   <si>
-    <t>sgil_headshot.jpg</t>
-  </si>
-  <si>
     <t>Daniel-Aukes.jpg</t>
-  </si>
-  <si>
-    <t>gil_lab.jpg</t>
   </si>
 </sst>
 </file>
@@ -1760,30 +1741,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="75" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="40.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="80.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="11" width="40.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="80.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1827,7 +1808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -1835,14 +1816,14 @@
         <v>37</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C27" si="0">A2&amp;" "&amp;B2</f>
+        <f t="shared" ref="C2:C26" si="0">A2&amp;" "&amp;B2</f>
         <v>Daniel Aukes</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>39</v>
@@ -1866,13 +1847,13 @@
         <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -1917,7 +1898,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
@@ -1962,7 +1943,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -2007,7 +1988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>189</v>
       </c>
@@ -2052,7 +2033,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -2097,7 +2078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -2139,7 +2120,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -2184,22 +2165,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Stephanie Gil</v>
+        <v>Subbarao Kambhampati</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>240</v>
+        <v>121</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
@@ -2207,347 +2188,353 @@
       <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H10" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>242</v>
+        <v>124</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>270</v>
+        <v>126</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>272</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Subbarao Kambhampati</v>
+        <v>Lina Karam</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>123</v>
+        <v>232</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>125</v>
+        <v>235</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Lina Karam</v>
+        <v>Hyunglae Lee</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>234</v>
+        <v>92</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>237</v>
+        <v>95</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>238</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hyunglae Lee</v>
+        <v>Thurmon Lockhart</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Thurmon Lockhart</v>
+        <v>Hamid Marvi</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Hamid Marvi</v>
+        <v>Theodore (Ted) Pavlic</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Theodore (Ted) Pavlic</v>
+        <v>Yi (Max) Ren</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Yi (Max) Ren</v>
+        <v>Aviral Shrivastava</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Aviral Shrivastava</v>
+        <v>Siddharth Srivastava</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>18</v>
@@ -2556,310 +2543,313 @@
         <v>18</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>19</v>
+        <v>212</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Siddharth Srivastava</v>
+        <v>Thomas Sugar</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Thomas Sugar</v>
+        <v>Yezhou Yang</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Yezhou Yang</v>
+        <v>Sze Zheng Yong</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sze Zheng Yong</v>
+        <v>Wenlong Zhang</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Wenlong Zhang</v>
+        <v>Yu(Tony) Zhang</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Yu(Tony) Zhang</v>
+        <v>Sangram Redkar</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>206</v>
+        <v>144</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Sangram Redkar</v>
+        <v>Troy McDaniel</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>39</v>
@@ -2868,43 +2858,40 @@
         <v>39</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Troy McDaniel</v>
+        <v>Ayan Malik</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>39</v>
@@ -2913,74 +2900,30 @@
         <v>39</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="69" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Ayan Malik</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N24">
-    <sortCondition ref="B2:B24"/>
-    <sortCondition ref="A2:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N23">
+    <sortCondition ref="B2:B23"/>
+    <sortCondition ref="A2:A23"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/_data/faculty.xlsx
+++ b/_data/faculty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\website_asurobotics\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A37B27E-2D78-434B-926C-8AE964EA09B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2C0C83-7204-4927-9BC5-4E6D01B340A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,9 +167,6 @@
     <t>The lab's focus is to develop new tools for designing robots by pairing emerging fabrication techniques and new materials with analytical and simulation-based methods for understanding the behavior of these complex systems</t>
   </si>
   <si>
-    <t>DSC_0006.JPG</t>
-  </si>
-  <si>
     <t>Erin</t>
   </si>
   <si>
@@ -827,7 +824,10 @@
     <t>mcdaniel_lab.jpg</t>
   </si>
   <si>
-    <t>Daniel-Aukes.jpg</t>
+    <t>Aukes-37.jpg</t>
+  </si>
+  <si>
+    <t>POLY-Dan-Aukes-2020-EG-5546a.png</t>
   </si>
 </sst>
 </file>
@@ -1743,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1823,7 +1823,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>39</v>
@@ -1850,15 +1850,15 @@
         <v>265</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>45</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1868,7 +1868,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
@@ -1877,33 +1877,33 @@
         <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1913,34 +1913,34 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -1990,20 +1990,20 @@
     </row>
     <row r="6" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Yinong Chen</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -2012,33 +2012,33 @@
         <v>18</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2048,7 +2048,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>39</v>
@@ -2057,75 +2057,75 @@
         <v>39</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Pauline Davies</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2135,7 +2135,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>18</v>
@@ -2144,43 +2144,43 @@
         <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Subbarao Kambhampati</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
@@ -2189,75 +2189,75 @@
         <v>18</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Lina Karam</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2267,52 +2267,52 @@
         <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Thurmon Lockhart</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>28</v>
@@ -2321,33 +2321,33 @@
         <v>28</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2357,42 +2357,42 @@
         <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2402,7 +2402,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>18</v>
@@ -2411,33 +2411,33 @@
         <v>18</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2447,34 +2447,34 @@
         <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -2521,10 +2521,10 @@
     </row>
     <row r="18" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2534,7 +2534,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>18</v>
@@ -2543,43 +2543,43 @@
         <v>18</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Thomas Sugar</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>39</v>
@@ -2588,33 +2588,33 @@
         <v>39</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2624,7 +2624,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>18</v>
@@ -2633,33 +2633,33 @@
         <v>18</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2669,42 +2669,42 @@
         <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2714,7 +2714,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>39</v>
@@ -2723,33 +2723,33 @@
         <v>39</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2759,7 +2759,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>18</v>
@@ -2768,33 +2768,33 @@
         <v>18</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2804,7 +2804,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>39</v>
@@ -2813,33 +2813,33 @@
         <v>39</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="L24" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2849,7 +2849,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>39</v>
@@ -2858,30 +2858,30 @@
         <v>39</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="L25" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="N25" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2891,7 +2891,7 @@
         <v>38</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>39</v>
@@ -2900,19 +2900,19 @@
         <v>39</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="L26" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/_data/faculty.xlsx
+++ b/_data/faculty.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="277">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -76,172 +76,175 @@
     <t xml:space="preserve">danaukes@asu.edu</t>
   </si>
   <si>
+    <t xml:space="preserve">MSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop new tools for designing robots by pairing emerging fabrication techniques and new materials with analytical and simulation-based methods for understanding the behavior of these complex systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design,Dynamics,Mechatronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEAlab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://idealab.asu.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lab's focus is to develop new tools for designing robots by pairing emerging fabrication techniques and new materials with analytical and simulation-based methods for understanding the behavior of these complex systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLY-Dan-Aukes-2020-EG-5546a.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aukes-37.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Amor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbenamor@asu.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIDSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine learning methods for teaching motor skills to robots with approaches such as, reinforcement learning, imitation learning, active vision, and learning for human-robot interaction; collaborative human-robot assembly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controls,AI-and-learning,Vision,Neural,Human-Robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactive Robotics Laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://interactive-robotics.engineering.asu.edu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lab explores the intersection of robotics, artificial intelligence, and human-robot interaction for the development of machine learning methods that allow humanoid robots to behave in an intelligent and autonomous manner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BenAmor_Hani_400x533.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12973087_10207425984500397_2859409810083467075_o.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associate Professor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spring.berman@asu.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop control frameworks for designing distributed robot behaviors that provably produce target collective behaviors; model mechanisms of self-organization in nature and translate them into robust strategies for robotic swarms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controls,Dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autonomous Collective Systems Laboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://faculty.engineering.asu.edu/acs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lab develops control frameworks for designing distributed robot behaviors that provably produce target collective behaviors, models nature's mechanisms of self-organization and translates them into strategies for robot swarms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BermanProfilePhoto.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMTE-Berman-Lab-Nov2015C.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buneo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbuneo@asu.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBHSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focusing on neural mechanisms of multisensory and sensorimotor integration; plasticity and recovery of function; rehabilitation robotics; brain-machine interfaces 5) neuromodulation for enhancing plasticity and sensory perception.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural,Bio-robotics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visuomotor Learning Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://sbhse.engineering.asu.edu/faculty-and-staff/faculty/christopher-buneo/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lab focuses on using a combination of human psychophysical experiments, neurophysiological experiments, and computational modeling to pursue its research interests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buneo.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picture12-300x257.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yinong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Lecturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yinong@asu.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop Robot as a Service (RaaS) concepts and implementations, visual IoT/Robotics Programming Language Environment that can be used to program EV3 robots and any open-architecture robots.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controls,Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IoT and Robotics Education Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://neptune.fulton.ad.asu.edu/VIPLE/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop educational materials for teaching robotics and programming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yinong09.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VipleLogoWords.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erin.chiou@asu.edu</t>
+  </si>
+  <si>
     <t xml:space="preserve">POLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop new tools for designing robots by pairing emerging fabrication techniques and new materials with analytical and simulation-based methods for understanding the behavior of these complex systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design,Dynamics,Mechatronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDEAlab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://idealab.asu.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lab's focus is to develop new tools for designing robots by pairing emerging fabrication techniques and new materials with analytical and simulation-based methods for understanding the behavior of these complex systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLY-Dan-Aukes-2020-EG-5546a.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aukes-37.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben Amor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hbenamor@asu.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIDSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine learning methods for teaching motor skills to robots with approaches such as, reinforcement learning, imitation learning, active vision, and learning for human-robot interaction; collaborative human-robot assembly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controls,AI-and-learning,Vision,Neural,Human-Robot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactive Robotics Laboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://interactive-robotics.engineering.asu.edu/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lab explores the intersection of robotics, artificial intelligence, and human-robot interaction for the development of machine learning methods that allow humanoid robots to behave in an intelligent and autonomous manner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BenAmor_Hani_400x533.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12973087_10207425984500397_2859409810083467075_o.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Associate Professor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spring.berman@asu.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop control frameworks for designing distributed robot behaviors that provably produce target collective behaviors; model mechanisms of self-organization in nature and translate them into robust strategies for robotic swarms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controls,Dynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autonomous Collective Systems Laboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://faculty.engineering.asu.edu/acs/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lab develops control frameworks for designing distributed robot behaviors that provably produce target collective behaviors, models nature's mechanisms of self-organization and translates them into strategies for robot swarms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BermanProfilePhoto.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMTE-Berman-Lab-Nov2015C.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christopher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buneo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbuneo@asu.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBHSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Focusing on neural mechanisms of multisensory and sensorimotor integration; plasticity and recovery of function; rehabilitation robotics; brain-machine interfaces 5) neuromodulation for enhancing plasticity and sensory perception.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural,Bio-robotics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visuomotor Learning Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://sbhse.engineering.asu.edu/faculty-and-staff/faculty/christopher-buneo/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lab focuses on using a combination of human psychophysical experiments, neurophysiological experiments, and computational modeling to pursue its research interests.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buneo.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picture12-300x257.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yinong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senior Lecturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yinong@asu.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop Robot as a Service (RaaS) concepts and implementations, visual IoT/Robotics Programming Language Environment that can be used to program EV3 robots and any open-architecture robots.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controls,Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IoT and Robotics Education Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://neptune.fulton.ad.asu.edu/VIPLE/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop educational materials for teaching robotics and programming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yinong09.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VipleLogoWords.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erin.chiou@asu.edu</t>
   </si>
   <si>
     <t xml:space="preserve">Research on human-automation interaction in cognitive tasks, complex systems, safety applications, resilience, cooperation, and trust.  </t>
@@ -978,16 +981,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -995,24 +998,28 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1089,14 +1096,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1107,7 +1114,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="38.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="40.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="80.57"/>
@@ -1160,7 +1167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1403,81 +1410,81 @@
         <v>73</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">A8&amp;" "&amp;B8</f>
         <v>Pauline Davies</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">A9&amp;" "&amp;B9</f>
@@ -1487,7 +1494,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>29</v>
@@ -1496,43 +1503,43 @@
         <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">A10&amp;" "&amp;B10</f>
         <v>Subbarao Kambhampati</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>29</v>
@@ -1541,75 +1548,75 @@
         <v>29</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">A11&amp;" "&amp;B11</f>
         <v>Lina Karam</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">A12&amp;" "&amp;B12</f>
@@ -1619,7 +1626,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>41</v>
@@ -1628,43 +1635,43 @@
         <v>41</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">A13&amp;" "&amp;B13</f>
         <v>Thurmon Lockhart</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>52</v>
@@ -1673,33 +1680,33 @@
         <v>52</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">A14&amp;" "&amp;B14</f>
@@ -1709,7 +1716,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>41</v>
@@ -1718,33 +1725,33 @@
         <v>41</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">A15&amp;" "&amp;B15</f>
@@ -1754,7 +1761,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>29</v>
@@ -1763,33 +1770,33 @@
         <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C16" s="1" t="str">
         <f aca="false">A16&amp;" "&amp;B16</f>
@@ -1799,7 +1806,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>41</v>
@@ -1808,33 +1815,33 @@
         <v>41</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">A17&amp;" "&amp;B17</f>
@@ -1844,7 +1851,7 @@
         <v>39</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>29</v>
@@ -1853,30 +1860,30 @@
         <v>29</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="1" t="str">
         <f aca="false">A18&amp;" "&amp;B18</f>
@@ -1886,7 +1893,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>29</v>
@@ -1895,43 +1902,43 @@
         <v>29</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" s="1" t="str">
         <f aca="false">A19&amp;" "&amp;B19</f>
         <v>Thomas Sugar</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>18</v>
@@ -1940,33 +1947,33 @@
         <v>18</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">A20&amp;" "&amp;B20</f>
@@ -1976,7 +1983,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>29</v>
@@ -1985,33 +1992,33 @@
         <v>29</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C21" s="1" t="str">
         <f aca="false">A21&amp;" "&amp;B21</f>
@@ -2021,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>41</v>
@@ -2030,33 +2037,33 @@
         <v>41</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">A22&amp;" "&amp;B22</f>
@@ -2066,7 +2073,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>18</v>
@@ -2075,33 +2082,33 @@
         <v>18</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C23" s="1" t="str">
         <f aca="false">A23&amp;" "&amp;B23</f>
@@ -2111,7 +2118,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>29</v>
@@ -2120,33 +2127,33 @@
         <v>29</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">A24&amp;" "&amp;B24</f>
@@ -2156,7 +2163,7 @@
         <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>18</v>
@@ -2165,33 +2172,33 @@
         <v>18</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">A25&amp;" "&amp;B25</f>
@@ -2201,7 +2208,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>18</v>
@@ -2210,30 +2217,30 @@
         <v>18</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C26" s="1" t="str">
         <f aca="false">A26&amp;" "&amp;B26</f>
@@ -2243,45 +2250,45 @@
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>41</v>
@@ -2290,22 +2297,22 @@
         <v>41</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
@@ -2320,1004 +2327,1004 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
-      <c r="AA27" s="0"/>
-      <c r="AB27" s="0"/>
-      <c r="AC27" s="0"/>
-      <c r="AD27" s="0"/>
-      <c r="AE27" s="0"/>
-      <c r="AF27" s="0"/>
-      <c r="AG27" s="0"/>
-      <c r="AH27" s="0"/>
-      <c r="AI27" s="0"/>
-      <c r="AJ27" s="0"/>
-      <c r="AK27" s="0"/>
-      <c r="AL27" s="0"/>
-      <c r="AM27" s="0"/>
-      <c r="AN27" s="0"/>
-      <c r="AO27" s="0"/>
-      <c r="AP27" s="0"/>
-      <c r="AQ27" s="0"/>
-      <c r="AR27" s="0"/>
-      <c r="AS27" s="0"/>
-      <c r="AT27" s="0"/>
-      <c r="AU27" s="0"/>
-      <c r="AV27" s="0"/>
-      <c r="AW27" s="0"/>
-      <c r="AX27" s="0"/>
-      <c r="AY27" s="0"/>
-      <c r="AZ27" s="0"/>
-      <c r="BA27" s="0"/>
-      <c r="BB27" s="0"/>
-      <c r="BC27" s="0"/>
-      <c r="BD27" s="0"/>
-      <c r="BE27" s="0"/>
-      <c r="BF27" s="0"/>
-      <c r="BG27" s="0"/>
-      <c r="BH27" s="0"/>
-      <c r="BI27" s="0"/>
-      <c r="BJ27" s="0"/>
-      <c r="BK27" s="0"/>
-      <c r="BL27" s="0"/>
-      <c r="BM27" s="0"/>
-      <c r="BN27" s="0"/>
-      <c r="BO27" s="0"/>
-      <c r="BP27" s="0"/>
-      <c r="BQ27" s="0"/>
-      <c r="BR27" s="0"/>
-      <c r="BS27" s="0"/>
-      <c r="BT27" s="0"/>
-      <c r="BU27" s="0"/>
-      <c r="BV27" s="0"/>
-      <c r="BW27" s="0"/>
-      <c r="BX27" s="0"/>
-      <c r="BY27" s="0"/>
-      <c r="BZ27" s="0"/>
-      <c r="CA27" s="0"/>
-      <c r="CB27" s="0"/>
-      <c r="CC27" s="0"/>
-      <c r="CD27" s="0"/>
-      <c r="CE27" s="0"/>
-      <c r="CF27" s="0"/>
-      <c r="CG27" s="0"/>
-      <c r="CH27" s="0"/>
-      <c r="CI27" s="0"/>
-      <c r="CJ27" s="0"/>
-      <c r="CK27" s="0"/>
-      <c r="CL27" s="0"/>
-      <c r="CM27" s="0"/>
-      <c r="CN27" s="0"/>
-      <c r="CO27" s="0"/>
-      <c r="CP27" s="0"/>
-      <c r="CQ27" s="0"/>
-      <c r="CR27" s="0"/>
-      <c r="CS27" s="0"/>
-      <c r="CT27" s="0"/>
-      <c r="CU27" s="0"/>
-      <c r="CV27" s="0"/>
-      <c r="CW27" s="0"/>
-      <c r="CX27" s="0"/>
-      <c r="CY27" s="0"/>
-      <c r="CZ27" s="0"/>
-      <c r="DA27" s="0"/>
-      <c r="DB27" s="0"/>
-      <c r="DC27" s="0"/>
-      <c r="DD27" s="0"/>
-      <c r="DE27" s="0"/>
-      <c r="DF27" s="0"/>
-      <c r="DG27" s="0"/>
-      <c r="DH27" s="0"/>
-      <c r="DI27" s="0"/>
-      <c r="DJ27" s="0"/>
-      <c r="DK27" s="0"/>
-      <c r="DL27" s="0"/>
-      <c r="DM27" s="0"/>
-      <c r="DN27" s="0"/>
-      <c r="DO27" s="0"/>
-      <c r="DP27" s="0"/>
-      <c r="DQ27" s="0"/>
-      <c r="DR27" s="0"/>
-      <c r="DS27" s="0"/>
-      <c r="DT27" s="0"/>
-      <c r="DU27" s="0"/>
-      <c r="DV27" s="0"/>
-      <c r="DW27" s="0"/>
-      <c r="DX27" s="0"/>
-      <c r="DY27" s="0"/>
-      <c r="DZ27" s="0"/>
-      <c r="EA27" s="0"/>
-      <c r="EB27" s="0"/>
-      <c r="EC27" s="0"/>
-      <c r="ED27" s="0"/>
-      <c r="EE27" s="0"/>
-      <c r="EF27" s="0"/>
-      <c r="EG27" s="0"/>
-      <c r="EH27" s="0"/>
-      <c r="EI27" s="0"/>
-      <c r="EJ27" s="0"/>
-      <c r="EK27" s="0"/>
-      <c r="EL27" s="0"/>
-      <c r="EM27" s="0"/>
-      <c r="EN27" s="0"/>
-      <c r="EO27" s="0"/>
-      <c r="EP27" s="0"/>
-      <c r="EQ27" s="0"/>
-      <c r="ER27" s="0"/>
-      <c r="ES27" s="0"/>
-      <c r="ET27" s="0"/>
-      <c r="EU27" s="0"/>
-      <c r="EV27" s="0"/>
-      <c r="EW27" s="0"/>
-      <c r="EX27" s="0"/>
-      <c r="EY27" s="0"/>
-      <c r="EZ27" s="0"/>
-      <c r="FA27" s="0"/>
-      <c r="FB27" s="0"/>
-      <c r="FC27" s="0"/>
-      <c r="FD27" s="0"/>
-      <c r="FE27" s="0"/>
-      <c r="FF27" s="0"/>
-      <c r="FG27" s="0"/>
-      <c r="FH27" s="0"/>
-      <c r="FI27" s="0"/>
-      <c r="FJ27" s="0"/>
-      <c r="FK27" s="0"/>
-      <c r="FL27" s="0"/>
-      <c r="FM27" s="0"/>
-      <c r="FN27" s="0"/>
-      <c r="FO27" s="0"/>
-      <c r="FP27" s="0"/>
-      <c r="FQ27" s="0"/>
-      <c r="FR27" s="0"/>
-      <c r="FS27" s="0"/>
-      <c r="FT27" s="0"/>
-      <c r="FU27" s="0"/>
-      <c r="FV27" s="0"/>
-      <c r="FW27" s="0"/>
-      <c r="FX27" s="0"/>
-      <c r="FY27" s="0"/>
-      <c r="FZ27" s="0"/>
-      <c r="GA27" s="0"/>
-      <c r="GB27" s="0"/>
-      <c r="GC27" s="0"/>
-      <c r="GD27" s="0"/>
-      <c r="GE27" s="0"/>
-      <c r="GF27" s="0"/>
-      <c r="GG27" s="0"/>
-      <c r="GH27" s="0"/>
-      <c r="GI27" s="0"/>
-      <c r="GJ27" s="0"/>
-      <c r="GK27" s="0"/>
-      <c r="GL27" s="0"/>
-      <c r="GM27" s="0"/>
-      <c r="GN27" s="0"/>
-      <c r="GO27" s="0"/>
-      <c r="GP27" s="0"/>
-      <c r="GQ27" s="0"/>
-      <c r="GR27" s="0"/>
-      <c r="GS27" s="0"/>
-      <c r="GT27" s="0"/>
-      <c r="GU27" s="0"/>
-      <c r="GV27" s="0"/>
-      <c r="GW27" s="0"/>
-      <c r="GX27" s="0"/>
-      <c r="GY27" s="0"/>
-      <c r="GZ27" s="0"/>
-      <c r="HA27" s="0"/>
-      <c r="HB27" s="0"/>
-      <c r="HC27" s="0"/>
-      <c r="HD27" s="0"/>
-      <c r="HE27" s="0"/>
-      <c r="HF27" s="0"/>
-      <c r="HG27" s="0"/>
-      <c r="HH27" s="0"/>
-      <c r="HI27" s="0"/>
-      <c r="HJ27" s="0"/>
-      <c r="HK27" s="0"/>
-      <c r="HL27" s="0"/>
-      <c r="HM27" s="0"/>
-      <c r="HN27" s="0"/>
-      <c r="HO27" s="0"/>
-      <c r="HP27" s="0"/>
-      <c r="HQ27" s="0"/>
-      <c r="HR27" s="0"/>
-      <c r="HS27" s="0"/>
-      <c r="HT27" s="0"/>
-      <c r="HU27" s="0"/>
-      <c r="HV27" s="0"/>
-      <c r="HW27" s="0"/>
-      <c r="HX27" s="0"/>
-      <c r="HY27" s="0"/>
-      <c r="HZ27" s="0"/>
-      <c r="IA27" s="0"/>
-      <c r="IB27" s="0"/>
-      <c r="IC27" s="0"/>
-      <c r="ID27" s="0"/>
-      <c r="IE27" s="0"/>
-      <c r="IF27" s="0"/>
-      <c r="IG27" s="0"/>
-      <c r="IH27" s="0"/>
-      <c r="II27" s="0"/>
-      <c r="IJ27" s="0"/>
-      <c r="IK27" s="0"/>
-      <c r="IL27" s="0"/>
-      <c r="IM27" s="0"/>
-      <c r="IN27" s="0"/>
-      <c r="IO27" s="0"/>
-      <c r="IP27" s="0"/>
-      <c r="IQ27" s="0"/>
-      <c r="IR27" s="0"/>
-      <c r="IS27" s="0"/>
-      <c r="IT27" s="0"/>
-      <c r="IU27" s="0"/>
-      <c r="IV27" s="0"/>
-      <c r="IW27" s="0"/>
-      <c r="IX27" s="0"/>
-      <c r="IY27" s="0"/>
-      <c r="IZ27" s="0"/>
-      <c r="JA27" s="0"/>
-      <c r="JB27" s="0"/>
-      <c r="JC27" s="0"/>
-      <c r="JD27" s="0"/>
-      <c r="JE27" s="0"/>
-      <c r="JF27" s="0"/>
-      <c r="JG27" s="0"/>
-      <c r="JH27" s="0"/>
-      <c r="JI27" s="0"/>
-      <c r="JJ27" s="0"/>
-      <c r="JK27" s="0"/>
-      <c r="JL27" s="0"/>
-      <c r="JM27" s="0"/>
-      <c r="JN27" s="0"/>
-      <c r="JO27" s="0"/>
-      <c r="JP27" s="0"/>
-      <c r="JQ27" s="0"/>
-      <c r="JR27" s="0"/>
-      <c r="JS27" s="0"/>
-      <c r="JT27" s="0"/>
-      <c r="JU27" s="0"/>
-      <c r="JV27" s="0"/>
-      <c r="JW27" s="0"/>
-      <c r="JX27" s="0"/>
-      <c r="JY27" s="0"/>
-      <c r="JZ27" s="0"/>
-      <c r="KA27" s="0"/>
-      <c r="KB27" s="0"/>
-      <c r="KC27" s="0"/>
-      <c r="KD27" s="0"/>
-      <c r="KE27" s="0"/>
-      <c r="KF27" s="0"/>
-      <c r="KG27" s="0"/>
-      <c r="KH27" s="0"/>
-      <c r="KI27" s="0"/>
-      <c r="KJ27" s="0"/>
-      <c r="KK27" s="0"/>
-      <c r="KL27" s="0"/>
-      <c r="KM27" s="0"/>
-      <c r="KN27" s="0"/>
-      <c r="KO27" s="0"/>
-      <c r="KP27" s="0"/>
-      <c r="KQ27" s="0"/>
-      <c r="KR27" s="0"/>
-      <c r="KS27" s="0"/>
-      <c r="KT27" s="0"/>
-      <c r="KU27" s="0"/>
-      <c r="KV27" s="0"/>
-      <c r="KW27" s="0"/>
-      <c r="KX27" s="0"/>
-      <c r="KY27" s="0"/>
-      <c r="KZ27" s="0"/>
-      <c r="LA27" s="0"/>
-      <c r="LB27" s="0"/>
-      <c r="LC27" s="0"/>
-      <c r="LD27" s="0"/>
-      <c r="LE27" s="0"/>
-      <c r="LF27" s="0"/>
-      <c r="LG27" s="0"/>
-      <c r="LH27" s="0"/>
-      <c r="LI27" s="0"/>
-      <c r="LJ27" s="0"/>
-      <c r="LK27" s="0"/>
-      <c r="LL27" s="0"/>
-      <c r="LM27" s="0"/>
-      <c r="LN27" s="0"/>
-      <c r="LO27" s="0"/>
-      <c r="LP27" s="0"/>
-      <c r="LQ27" s="0"/>
-      <c r="LR27" s="0"/>
-      <c r="LS27" s="0"/>
-      <c r="LT27" s="0"/>
-      <c r="LU27" s="0"/>
-      <c r="LV27" s="0"/>
-      <c r="LW27" s="0"/>
-      <c r="LX27" s="0"/>
-      <c r="LY27" s="0"/>
-      <c r="LZ27" s="0"/>
-      <c r="MA27" s="0"/>
-      <c r="MB27" s="0"/>
-      <c r="MC27" s="0"/>
-      <c r="MD27" s="0"/>
-      <c r="ME27" s="0"/>
-      <c r="MF27" s="0"/>
-      <c r="MG27" s="0"/>
-      <c r="MH27" s="0"/>
-      <c r="MI27" s="0"/>
-      <c r="MJ27" s="0"/>
-      <c r="MK27" s="0"/>
-      <c r="ML27" s="0"/>
-      <c r="MM27" s="0"/>
-      <c r="MN27" s="0"/>
-      <c r="MO27" s="0"/>
-      <c r="MP27" s="0"/>
-      <c r="MQ27" s="0"/>
-      <c r="MR27" s="0"/>
-      <c r="MS27" s="0"/>
-      <c r="MT27" s="0"/>
-      <c r="MU27" s="0"/>
-      <c r="MV27" s="0"/>
-      <c r="MW27" s="0"/>
-      <c r="MX27" s="0"/>
-      <c r="MY27" s="0"/>
-      <c r="MZ27" s="0"/>
-      <c r="NA27" s="0"/>
-      <c r="NB27" s="0"/>
-      <c r="NC27" s="0"/>
-      <c r="ND27" s="0"/>
-      <c r="NE27" s="0"/>
-      <c r="NF27" s="0"/>
-      <c r="NG27" s="0"/>
-      <c r="NH27" s="0"/>
-      <c r="NI27" s="0"/>
-      <c r="NJ27" s="0"/>
-      <c r="NK27" s="0"/>
-      <c r="NL27" s="0"/>
-      <c r="NM27" s="0"/>
-      <c r="NN27" s="0"/>
-      <c r="NO27" s="0"/>
-      <c r="NP27" s="0"/>
-      <c r="NQ27" s="0"/>
-      <c r="NR27" s="0"/>
-      <c r="NS27" s="0"/>
-      <c r="NT27" s="0"/>
-      <c r="NU27" s="0"/>
-      <c r="NV27" s="0"/>
-      <c r="NW27" s="0"/>
-      <c r="NX27" s="0"/>
-      <c r="NY27" s="0"/>
-      <c r="NZ27" s="0"/>
-      <c r="OA27" s="0"/>
-      <c r="OB27" s="0"/>
-      <c r="OC27" s="0"/>
-      <c r="OD27" s="0"/>
-      <c r="OE27" s="0"/>
-      <c r="OF27" s="0"/>
-      <c r="OG27" s="0"/>
-      <c r="OH27" s="0"/>
-      <c r="OI27" s="0"/>
-      <c r="OJ27" s="0"/>
-      <c r="OK27" s="0"/>
-      <c r="OL27" s="0"/>
-      <c r="OM27" s="0"/>
-      <c r="ON27" s="0"/>
-      <c r="OO27" s="0"/>
-      <c r="OP27" s="0"/>
-      <c r="OQ27" s="0"/>
-      <c r="OR27" s="0"/>
-      <c r="OS27" s="0"/>
-      <c r="OT27" s="0"/>
-      <c r="OU27" s="0"/>
-      <c r="OV27" s="0"/>
-      <c r="OW27" s="0"/>
-      <c r="OX27" s="0"/>
-      <c r="OY27" s="0"/>
-      <c r="OZ27" s="0"/>
-      <c r="PA27" s="0"/>
-      <c r="PB27" s="0"/>
-      <c r="PC27" s="0"/>
-      <c r="PD27" s="0"/>
-      <c r="PE27" s="0"/>
-      <c r="PF27" s="0"/>
-      <c r="PG27" s="0"/>
-      <c r="PH27" s="0"/>
-      <c r="PI27" s="0"/>
-      <c r="PJ27" s="0"/>
-      <c r="PK27" s="0"/>
-      <c r="PL27" s="0"/>
-      <c r="PM27" s="0"/>
-      <c r="PN27" s="0"/>
-      <c r="PO27" s="0"/>
-      <c r="PP27" s="0"/>
-      <c r="PQ27" s="0"/>
-      <c r="PR27" s="0"/>
-      <c r="PS27" s="0"/>
-      <c r="PT27" s="0"/>
-      <c r="PU27" s="0"/>
-      <c r="PV27" s="0"/>
-      <c r="PW27" s="0"/>
-      <c r="PX27" s="0"/>
-      <c r="PY27" s="0"/>
-      <c r="PZ27" s="0"/>
-      <c r="QA27" s="0"/>
-      <c r="QB27" s="0"/>
-      <c r="QC27" s="0"/>
-      <c r="QD27" s="0"/>
-      <c r="QE27" s="0"/>
-      <c r="QF27" s="0"/>
-      <c r="QG27" s="0"/>
-      <c r="QH27" s="0"/>
-      <c r="QI27" s="0"/>
-      <c r="QJ27" s="0"/>
-      <c r="QK27" s="0"/>
-      <c r="QL27" s="0"/>
-      <c r="QM27" s="0"/>
-      <c r="QN27" s="0"/>
-      <c r="QO27" s="0"/>
-      <c r="QP27" s="0"/>
-      <c r="QQ27" s="0"/>
-      <c r="QR27" s="0"/>
-      <c r="QS27" s="0"/>
-      <c r="QT27" s="0"/>
-      <c r="QU27" s="0"/>
-      <c r="QV27" s="0"/>
-      <c r="QW27" s="0"/>
-      <c r="QX27" s="0"/>
-      <c r="QY27" s="0"/>
-      <c r="QZ27" s="0"/>
-      <c r="RA27" s="0"/>
-      <c r="RB27" s="0"/>
-      <c r="RC27" s="0"/>
-      <c r="RD27" s="0"/>
-      <c r="RE27" s="0"/>
-      <c r="RF27" s="0"/>
-      <c r="RG27" s="0"/>
-      <c r="RH27" s="0"/>
-      <c r="RI27" s="0"/>
-      <c r="RJ27" s="0"/>
-      <c r="RK27" s="0"/>
-      <c r="RL27" s="0"/>
-      <c r="RM27" s="0"/>
-      <c r="RN27" s="0"/>
-      <c r="RO27" s="0"/>
-      <c r="RP27" s="0"/>
-      <c r="RQ27" s="0"/>
-      <c r="RR27" s="0"/>
-      <c r="RS27" s="0"/>
-      <c r="RT27" s="0"/>
-      <c r="RU27" s="0"/>
-      <c r="RV27" s="0"/>
-      <c r="RW27" s="0"/>
-      <c r="RX27" s="0"/>
-      <c r="RY27" s="0"/>
-      <c r="RZ27" s="0"/>
-      <c r="SA27" s="0"/>
-      <c r="SB27" s="0"/>
-      <c r="SC27" s="0"/>
-      <c r="SD27" s="0"/>
-      <c r="SE27" s="0"/>
-      <c r="SF27" s="0"/>
-      <c r="SG27" s="0"/>
-      <c r="SH27" s="0"/>
-      <c r="SI27" s="0"/>
-      <c r="SJ27" s="0"/>
-      <c r="SK27" s="0"/>
-      <c r="SL27" s="0"/>
-      <c r="SM27" s="0"/>
-      <c r="SN27" s="0"/>
-      <c r="SO27" s="0"/>
-      <c r="SP27" s="0"/>
-      <c r="SQ27" s="0"/>
-      <c r="SR27" s="0"/>
-      <c r="SS27" s="0"/>
-      <c r="ST27" s="0"/>
-      <c r="SU27" s="0"/>
-      <c r="SV27" s="0"/>
-      <c r="SW27" s="0"/>
-      <c r="SX27" s="0"/>
-      <c r="SY27" s="0"/>
-      <c r="SZ27" s="0"/>
-      <c r="TA27" s="0"/>
-      <c r="TB27" s="0"/>
-      <c r="TC27" s="0"/>
-      <c r="TD27" s="0"/>
-      <c r="TE27" s="0"/>
-      <c r="TF27" s="0"/>
-      <c r="TG27" s="0"/>
-      <c r="TH27" s="0"/>
-      <c r="TI27" s="0"/>
-      <c r="TJ27" s="0"/>
-      <c r="TK27" s="0"/>
-      <c r="TL27" s="0"/>
-      <c r="TM27" s="0"/>
-      <c r="TN27" s="0"/>
-      <c r="TO27" s="0"/>
-      <c r="TP27" s="0"/>
-      <c r="TQ27" s="0"/>
-      <c r="TR27" s="0"/>
-      <c r="TS27" s="0"/>
-      <c r="TT27" s="0"/>
-      <c r="TU27" s="0"/>
-      <c r="TV27" s="0"/>
-      <c r="TW27" s="0"/>
-      <c r="TX27" s="0"/>
-      <c r="TY27" s="0"/>
-      <c r="TZ27" s="0"/>
-      <c r="UA27" s="0"/>
-      <c r="UB27" s="0"/>
-      <c r="UC27" s="0"/>
-      <c r="UD27" s="0"/>
-      <c r="UE27" s="0"/>
-      <c r="UF27" s="0"/>
-      <c r="UG27" s="0"/>
-      <c r="UH27" s="0"/>
-      <c r="UI27" s="0"/>
-      <c r="UJ27" s="0"/>
-      <c r="UK27" s="0"/>
-      <c r="UL27" s="0"/>
-      <c r="UM27" s="0"/>
-      <c r="UN27" s="0"/>
-      <c r="UO27" s="0"/>
-      <c r="UP27" s="0"/>
-      <c r="UQ27" s="0"/>
-      <c r="UR27" s="0"/>
-      <c r="US27" s="0"/>
-      <c r="UT27" s="0"/>
-      <c r="UU27" s="0"/>
-      <c r="UV27" s="0"/>
-      <c r="UW27" s="0"/>
-      <c r="UX27" s="0"/>
-      <c r="UY27" s="0"/>
-      <c r="UZ27" s="0"/>
-      <c r="VA27" s="0"/>
-      <c r="VB27" s="0"/>
-      <c r="VC27" s="0"/>
-      <c r="VD27" s="0"/>
-      <c r="VE27" s="0"/>
-      <c r="VF27" s="0"/>
-      <c r="VG27" s="0"/>
-      <c r="VH27" s="0"/>
-      <c r="VI27" s="0"/>
-      <c r="VJ27" s="0"/>
-      <c r="VK27" s="0"/>
-      <c r="VL27" s="0"/>
-      <c r="VM27" s="0"/>
-      <c r="VN27" s="0"/>
-      <c r="VO27" s="0"/>
-      <c r="VP27" s="0"/>
-      <c r="VQ27" s="0"/>
-      <c r="VR27" s="0"/>
-      <c r="VS27" s="0"/>
-      <c r="VT27" s="0"/>
-      <c r="VU27" s="0"/>
-      <c r="VV27" s="0"/>
-      <c r="VW27" s="0"/>
-      <c r="VX27" s="0"/>
-      <c r="VY27" s="0"/>
-      <c r="VZ27" s="0"/>
-      <c r="WA27" s="0"/>
-      <c r="WB27" s="0"/>
-      <c r="WC27" s="0"/>
-      <c r="WD27" s="0"/>
-      <c r="WE27" s="0"/>
-      <c r="WF27" s="0"/>
-      <c r="WG27" s="0"/>
-      <c r="WH27" s="0"/>
-      <c r="WI27" s="0"/>
-      <c r="WJ27" s="0"/>
-      <c r="WK27" s="0"/>
-      <c r="WL27" s="0"/>
-      <c r="WM27" s="0"/>
-      <c r="WN27" s="0"/>
-      <c r="WO27" s="0"/>
-      <c r="WP27" s="0"/>
-      <c r="WQ27" s="0"/>
-      <c r="WR27" s="0"/>
-      <c r="WS27" s="0"/>
-      <c r="WT27" s="0"/>
-      <c r="WU27" s="0"/>
-      <c r="WV27" s="0"/>
-      <c r="WW27" s="0"/>
-      <c r="WX27" s="0"/>
-      <c r="WY27" s="0"/>
-      <c r="WZ27" s="0"/>
-      <c r="XA27" s="0"/>
-      <c r="XB27" s="0"/>
-      <c r="XC27" s="0"/>
-      <c r="XD27" s="0"/>
-      <c r="XE27" s="0"/>
-      <c r="XF27" s="0"/>
-      <c r="XG27" s="0"/>
-      <c r="XH27" s="0"/>
-      <c r="XI27" s="0"/>
-      <c r="XJ27" s="0"/>
-      <c r="XK27" s="0"/>
-      <c r="XL27" s="0"/>
-      <c r="XM27" s="0"/>
-      <c r="XN27" s="0"/>
-      <c r="XO27" s="0"/>
-      <c r="XP27" s="0"/>
-      <c r="XQ27" s="0"/>
-      <c r="XR27" s="0"/>
-      <c r="XS27" s="0"/>
-      <c r="XT27" s="0"/>
-      <c r="XU27" s="0"/>
-      <c r="XV27" s="0"/>
-      <c r="XW27" s="0"/>
-      <c r="XX27" s="0"/>
-      <c r="XY27" s="0"/>
-      <c r="XZ27" s="0"/>
-      <c r="YA27" s="0"/>
-      <c r="YB27" s="0"/>
-      <c r="YC27" s="0"/>
-      <c r="YD27" s="0"/>
-      <c r="YE27" s="0"/>
-      <c r="YF27" s="0"/>
-      <c r="YG27" s="0"/>
-      <c r="YH27" s="0"/>
-      <c r="YI27" s="0"/>
-      <c r="YJ27" s="0"/>
-      <c r="YK27" s="0"/>
-      <c r="YL27" s="0"/>
-      <c r="YM27" s="0"/>
-      <c r="YN27" s="0"/>
-      <c r="YO27" s="0"/>
-      <c r="YP27" s="0"/>
-      <c r="YQ27" s="0"/>
-      <c r="YR27" s="0"/>
-      <c r="YS27" s="0"/>
-      <c r="YT27" s="0"/>
-      <c r="YU27" s="0"/>
-      <c r="YV27" s="0"/>
-      <c r="YW27" s="0"/>
-      <c r="YX27" s="0"/>
-      <c r="YY27" s="0"/>
-      <c r="YZ27" s="0"/>
-      <c r="ZA27" s="0"/>
-      <c r="ZB27" s="0"/>
-      <c r="ZC27" s="0"/>
-      <c r="ZD27" s="0"/>
-      <c r="ZE27" s="0"/>
-      <c r="ZF27" s="0"/>
-      <c r="ZG27" s="0"/>
-      <c r="ZH27" s="0"/>
-      <c r="ZI27" s="0"/>
-      <c r="ZJ27" s="0"/>
-      <c r="ZK27" s="0"/>
-      <c r="ZL27" s="0"/>
-      <c r="ZM27" s="0"/>
-      <c r="ZN27" s="0"/>
-      <c r="ZO27" s="0"/>
-      <c r="ZP27" s="0"/>
-      <c r="ZQ27" s="0"/>
-      <c r="ZR27" s="0"/>
-      <c r="ZS27" s="0"/>
-      <c r="ZT27" s="0"/>
-      <c r="ZU27" s="0"/>
-      <c r="ZV27" s="0"/>
-      <c r="ZW27" s="0"/>
-      <c r="ZX27" s="0"/>
-      <c r="ZY27" s="0"/>
-      <c r="ZZ27" s="0"/>
-      <c r="AAA27" s="0"/>
-      <c r="AAB27" s="0"/>
-      <c r="AAC27" s="0"/>
-      <c r="AAD27" s="0"/>
-      <c r="AAE27" s="0"/>
-      <c r="AAF27" s="0"/>
-      <c r="AAG27" s="0"/>
-      <c r="AAH27" s="0"/>
-      <c r="AAI27" s="0"/>
-      <c r="AAJ27" s="0"/>
-      <c r="AAK27" s="0"/>
-      <c r="AAL27" s="0"/>
-      <c r="AAM27" s="0"/>
-      <c r="AAN27" s="0"/>
-      <c r="AAO27" s="0"/>
-      <c r="AAP27" s="0"/>
-      <c r="AAQ27" s="0"/>
-      <c r="AAR27" s="0"/>
-      <c r="AAS27" s="0"/>
-      <c r="AAT27" s="0"/>
-      <c r="AAU27" s="0"/>
-      <c r="AAV27" s="0"/>
-      <c r="AAW27" s="0"/>
-      <c r="AAX27" s="0"/>
-      <c r="AAY27" s="0"/>
-      <c r="AAZ27" s="0"/>
-      <c r="ABA27" s="0"/>
-      <c r="ABB27" s="0"/>
-      <c r="ABC27" s="0"/>
-      <c r="ABD27" s="0"/>
-      <c r="ABE27" s="0"/>
-      <c r="ABF27" s="0"/>
-      <c r="ABG27" s="0"/>
-      <c r="ABH27" s="0"/>
-      <c r="ABI27" s="0"/>
-      <c r="ABJ27" s="0"/>
-      <c r="ABK27" s="0"/>
-      <c r="ABL27" s="0"/>
-      <c r="ABM27" s="0"/>
-      <c r="ABN27" s="0"/>
-      <c r="ABO27" s="0"/>
-      <c r="ABP27" s="0"/>
-      <c r="ABQ27" s="0"/>
-      <c r="ABR27" s="0"/>
-      <c r="ABS27" s="0"/>
-      <c r="ABT27" s="0"/>
-      <c r="ABU27" s="0"/>
-      <c r="ABV27" s="0"/>
-      <c r="ABW27" s="0"/>
-      <c r="ABX27" s="0"/>
-      <c r="ABY27" s="0"/>
-      <c r="ABZ27" s="0"/>
-      <c r="ACA27" s="0"/>
-      <c r="ACB27" s="0"/>
-      <c r="ACC27" s="0"/>
-      <c r="ACD27" s="0"/>
-      <c r="ACE27" s="0"/>
-      <c r="ACF27" s="0"/>
-      <c r="ACG27" s="0"/>
-      <c r="ACH27" s="0"/>
-      <c r="ACI27" s="0"/>
-      <c r="ACJ27" s="0"/>
-      <c r="ACK27" s="0"/>
-      <c r="ACL27" s="0"/>
-      <c r="ACM27" s="0"/>
-      <c r="ACN27" s="0"/>
-      <c r="ACO27" s="0"/>
-      <c r="ACP27" s="0"/>
-      <c r="ACQ27" s="0"/>
-      <c r="ACR27" s="0"/>
-      <c r="ACS27" s="0"/>
-      <c r="ACT27" s="0"/>
-      <c r="ACU27" s="0"/>
-      <c r="ACV27" s="0"/>
-      <c r="ACW27" s="0"/>
-      <c r="ACX27" s="0"/>
-      <c r="ACY27" s="0"/>
-      <c r="ACZ27" s="0"/>
-      <c r="ADA27" s="0"/>
-      <c r="ADB27" s="0"/>
-      <c r="ADC27" s="0"/>
-      <c r="ADD27" s="0"/>
-      <c r="ADE27" s="0"/>
-      <c r="ADF27" s="0"/>
-      <c r="ADG27" s="0"/>
-      <c r="ADH27" s="0"/>
-      <c r="ADI27" s="0"/>
-      <c r="ADJ27" s="0"/>
-      <c r="ADK27" s="0"/>
-      <c r="ADL27" s="0"/>
-      <c r="ADM27" s="0"/>
-      <c r="ADN27" s="0"/>
-      <c r="ADO27" s="0"/>
-      <c r="ADP27" s="0"/>
-      <c r="ADQ27" s="0"/>
-      <c r="ADR27" s="0"/>
-      <c r="ADS27" s="0"/>
-      <c r="ADT27" s="0"/>
-      <c r="ADU27" s="0"/>
-      <c r="ADV27" s="0"/>
-      <c r="ADW27" s="0"/>
-      <c r="ADX27" s="0"/>
-      <c r="ADY27" s="0"/>
-      <c r="ADZ27" s="0"/>
-      <c r="AEA27" s="0"/>
-      <c r="AEB27" s="0"/>
-      <c r="AEC27" s="0"/>
-      <c r="AED27" s="0"/>
-      <c r="AEE27" s="0"/>
-      <c r="AEF27" s="0"/>
-      <c r="AEG27" s="0"/>
-      <c r="AEH27" s="0"/>
-      <c r="AEI27" s="0"/>
-      <c r="AEJ27" s="0"/>
-      <c r="AEK27" s="0"/>
-      <c r="AEL27" s="0"/>
-      <c r="AEM27" s="0"/>
-      <c r="AEN27" s="0"/>
-      <c r="AEO27" s="0"/>
-      <c r="AEP27" s="0"/>
-      <c r="AEQ27" s="0"/>
-      <c r="AER27" s="0"/>
-      <c r="AES27" s="0"/>
-      <c r="AET27" s="0"/>
-      <c r="AEU27" s="0"/>
-      <c r="AEV27" s="0"/>
-      <c r="AEW27" s="0"/>
-      <c r="AEX27" s="0"/>
-      <c r="AEY27" s="0"/>
-      <c r="AEZ27" s="0"/>
-      <c r="AFA27" s="0"/>
-      <c r="AFB27" s="0"/>
-      <c r="AFC27" s="0"/>
-      <c r="AFD27" s="0"/>
-      <c r="AFE27" s="0"/>
-      <c r="AFF27" s="0"/>
-      <c r="AFG27" s="0"/>
-      <c r="AFH27" s="0"/>
-      <c r="AFI27" s="0"/>
-      <c r="AFJ27" s="0"/>
-      <c r="AFK27" s="0"/>
-      <c r="AFL27" s="0"/>
-      <c r="AFM27" s="0"/>
-      <c r="AFN27" s="0"/>
-      <c r="AFO27" s="0"/>
-      <c r="AFP27" s="0"/>
-      <c r="AFQ27" s="0"/>
-      <c r="AFR27" s="0"/>
-      <c r="AFS27" s="0"/>
-      <c r="AFT27" s="0"/>
-      <c r="AFU27" s="0"/>
-      <c r="AFV27" s="0"/>
-      <c r="AFW27" s="0"/>
-      <c r="AFX27" s="0"/>
-      <c r="AFY27" s="0"/>
-      <c r="AFZ27" s="0"/>
-      <c r="AGA27" s="0"/>
-      <c r="AGB27" s="0"/>
-      <c r="AGC27" s="0"/>
-      <c r="AGD27" s="0"/>
-      <c r="AGE27" s="0"/>
-      <c r="AGF27" s="0"/>
-      <c r="AGG27" s="0"/>
-      <c r="AGH27" s="0"/>
-      <c r="AGI27" s="0"/>
-      <c r="AGJ27" s="0"/>
-      <c r="AGK27" s="0"/>
-      <c r="AGL27" s="0"/>
-      <c r="AGM27" s="0"/>
-      <c r="AGN27" s="0"/>
-      <c r="AGO27" s="0"/>
-      <c r="AGP27" s="0"/>
-      <c r="AGQ27" s="0"/>
-      <c r="AGR27" s="0"/>
-      <c r="AGS27" s="0"/>
-      <c r="AGT27" s="0"/>
-      <c r="AGU27" s="0"/>
-      <c r="AGV27" s="0"/>
-      <c r="AGW27" s="0"/>
-      <c r="AGX27" s="0"/>
-      <c r="AGY27" s="0"/>
-      <c r="AGZ27" s="0"/>
-      <c r="AHA27" s="0"/>
-      <c r="AHB27" s="0"/>
-      <c r="AHC27" s="0"/>
-      <c r="AHD27" s="0"/>
-      <c r="AHE27" s="0"/>
-      <c r="AHF27" s="0"/>
-      <c r="AHG27" s="0"/>
-      <c r="AHH27" s="0"/>
-      <c r="AHI27" s="0"/>
-      <c r="AHJ27" s="0"/>
-      <c r="AHK27" s="0"/>
-      <c r="AHL27" s="0"/>
-      <c r="AHM27" s="0"/>
-      <c r="AHN27" s="0"/>
-      <c r="AHO27" s="0"/>
-      <c r="AHP27" s="0"/>
-      <c r="AHQ27" s="0"/>
-      <c r="AHR27" s="0"/>
-      <c r="AHS27" s="0"/>
-      <c r="AHT27" s="0"/>
-      <c r="AHU27" s="0"/>
-      <c r="AHV27" s="0"/>
-      <c r="AHW27" s="0"/>
-      <c r="AHX27" s="0"/>
-      <c r="AHY27" s="0"/>
-      <c r="AHZ27" s="0"/>
-      <c r="AIA27" s="0"/>
-      <c r="AIB27" s="0"/>
-      <c r="AIC27" s="0"/>
-      <c r="AID27" s="0"/>
-      <c r="AIE27" s="0"/>
-      <c r="AIF27" s="0"/>
-      <c r="AIG27" s="0"/>
-      <c r="AIH27" s="0"/>
-      <c r="AII27" s="0"/>
-      <c r="AIJ27" s="0"/>
-      <c r="AIK27" s="0"/>
-      <c r="AIL27" s="0"/>
-      <c r="AIM27" s="0"/>
-      <c r="AIN27" s="0"/>
-      <c r="AIO27" s="0"/>
-      <c r="AIP27" s="0"/>
-      <c r="AIQ27" s="0"/>
-      <c r="AIR27" s="0"/>
-      <c r="AIS27" s="0"/>
-      <c r="AIT27" s="0"/>
-      <c r="AIU27" s="0"/>
-      <c r="AIV27" s="0"/>
-      <c r="AIW27" s="0"/>
-      <c r="AIX27" s="0"/>
-      <c r="AIY27" s="0"/>
-      <c r="AIZ27" s="0"/>
-      <c r="AJA27" s="0"/>
-      <c r="AJB27" s="0"/>
-      <c r="AJC27" s="0"/>
-      <c r="AJD27" s="0"/>
-      <c r="AJE27" s="0"/>
-      <c r="AJF27" s="0"/>
-      <c r="AJG27" s="0"/>
-      <c r="AJH27" s="0"/>
-      <c r="AJI27" s="0"/>
-      <c r="AJJ27" s="0"/>
-      <c r="AJK27" s="0"/>
-      <c r="AJL27" s="0"/>
-      <c r="AJM27" s="0"/>
-      <c r="AJN27" s="0"/>
-      <c r="AJO27" s="0"/>
-      <c r="AJP27" s="0"/>
-      <c r="AJQ27" s="0"/>
-      <c r="AJR27" s="0"/>
-      <c r="AJS27" s="0"/>
-      <c r="AJT27" s="0"/>
-      <c r="AJU27" s="0"/>
-      <c r="AJV27" s="0"/>
-      <c r="AJW27" s="0"/>
-      <c r="AJX27" s="0"/>
-      <c r="AJY27" s="0"/>
-      <c r="AJZ27" s="0"/>
-      <c r="AKA27" s="0"/>
-      <c r="AKB27" s="0"/>
-      <c r="AKC27" s="0"/>
-      <c r="AKD27" s="0"/>
-      <c r="AKE27" s="0"/>
-      <c r="AKF27" s="0"/>
-      <c r="AKG27" s="0"/>
-      <c r="AKH27" s="0"/>
-      <c r="AKI27" s="0"/>
-      <c r="AKJ27" s="0"/>
-      <c r="AKK27" s="0"/>
-      <c r="AKL27" s="0"/>
-      <c r="AKM27" s="0"/>
-      <c r="AKN27" s="0"/>
-      <c r="AKO27" s="0"/>
-      <c r="AKP27" s="0"/>
-      <c r="AKQ27" s="0"/>
-      <c r="AKR27" s="0"/>
-      <c r="AKS27" s="0"/>
-      <c r="AKT27" s="0"/>
-      <c r="AKU27" s="0"/>
-      <c r="AKV27" s="0"/>
-      <c r="AKW27" s="0"/>
-      <c r="AKX27" s="0"/>
-      <c r="AKY27" s="0"/>
-      <c r="AKZ27" s="0"/>
-      <c r="ALA27" s="0"/>
-      <c r="ALB27" s="0"/>
-      <c r="ALC27" s="0"/>
-      <c r="ALD27" s="0"/>
-      <c r="ALE27" s="0"/>
-      <c r="ALF27" s="0"/>
-      <c r="ALG27" s="0"/>
-      <c r="ALH27" s="0"/>
-      <c r="ALI27" s="0"/>
-      <c r="ALJ27" s="0"/>
-      <c r="ALK27" s="0"/>
-      <c r="ALL27" s="0"/>
-      <c r="ALM27" s="0"/>
-      <c r="ALN27" s="0"/>
-      <c r="ALO27" s="0"/>
-      <c r="ALP27" s="0"/>
-      <c r="ALQ27" s="0"/>
-      <c r="ALR27" s="0"/>
-      <c r="ALS27" s="0"/>
-      <c r="ALT27" s="0"/>
-      <c r="ALU27" s="0"/>
-      <c r="ALV27" s="0"/>
-      <c r="ALW27" s="0"/>
-      <c r="ALX27" s="0"/>
-      <c r="ALY27" s="0"/>
-      <c r="ALZ27" s="0"/>
-      <c r="AMA27" s="0"/>
-      <c r="AMB27" s="0"/>
-      <c r="AMC27" s="0"/>
-      <c r="AMD27" s="0"/>
-      <c r="AME27" s="0"/>
-      <c r="AMF27" s="0"/>
-      <c r="AMG27" s="0"/>
-      <c r="AMH27" s="0"/>
-      <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9"/>
+      <c r="AQ27" s="9"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="9"/>
+      <c r="AV27" s="9"/>
+      <c r="AW27" s="9"/>
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="9"/>
+      <c r="AZ27" s="9"/>
+      <c r="BA27" s="9"/>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="9"/>
+      <c r="BD27" s="9"/>
+      <c r="BE27" s="9"/>
+      <c r="BF27" s="9"/>
+      <c r="BG27" s="9"/>
+      <c r="BH27" s="9"/>
+      <c r="BI27" s="9"/>
+      <c r="BJ27" s="9"/>
+      <c r="BK27" s="9"/>
+      <c r="BL27" s="9"/>
+      <c r="BM27" s="9"/>
+      <c r="BN27" s="9"/>
+      <c r="BO27" s="9"/>
+      <c r="BP27" s="9"/>
+      <c r="BQ27" s="9"/>
+      <c r="BR27" s="9"/>
+      <c r="BS27" s="9"/>
+      <c r="BT27" s="9"/>
+      <c r="BU27" s="9"/>
+      <c r="BV27" s="9"/>
+      <c r="BW27" s="9"/>
+      <c r="BX27" s="9"/>
+      <c r="BY27" s="9"/>
+      <c r="BZ27" s="9"/>
+      <c r="CA27" s="9"/>
+      <c r="CB27" s="9"/>
+      <c r="CC27" s="9"/>
+      <c r="CD27" s="9"/>
+      <c r="CE27" s="9"/>
+      <c r="CF27" s="9"/>
+      <c r="CG27" s="9"/>
+      <c r="CH27" s="9"/>
+      <c r="CI27" s="9"/>
+      <c r="CJ27" s="9"/>
+      <c r="CK27" s="9"/>
+      <c r="CL27" s="9"/>
+      <c r="CM27" s="9"/>
+      <c r="CN27" s="9"/>
+      <c r="CO27" s="9"/>
+      <c r="CP27" s="9"/>
+      <c r="CQ27" s="9"/>
+      <c r="CR27" s="9"/>
+      <c r="CS27" s="9"/>
+      <c r="CT27" s="9"/>
+      <c r="CU27" s="9"/>
+      <c r="CV27" s="9"/>
+      <c r="CW27" s="9"/>
+      <c r="CX27" s="9"/>
+      <c r="CY27" s="9"/>
+      <c r="CZ27" s="9"/>
+      <c r="DA27" s="9"/>
+      <c r="DB27" s="9"/>
+      <c r="DC27" s="9"/>
+      <c r="DD27" s="9"/>
+      <c r="DE27" s="9"/>
+      <c r="DF27" s="9"/>
+      <c r="DG27" s="9"/>
+      <c r="DH27" s="9"/>
+      <c r="DI27" s="9"/>
+      <c r="DJ27" s="9"/>
+      <c r="DK27" s="9"/>
+      <c r="DL27" s="9"/>
+      <c r="DM27" s="9"/>
+      <c r="DN27" s="9"/>
+      <c r="DO27" s="9"/>
+      <c r="DP27" s="9"/>
+      <c r="DQ27" s="9"/>
+      <c r="DR27" s="9"/>
+      <c r="DS27" s="9"/>
+      <c r="DT27" s="9"/>
+      <c r="DU27" s="9"/>
+      <c r="DV27" s="9"/>
+      <c r="DW27" s="9"/>
+      <c r="DX27" s="9"/>
+      <c r="DY27" s="9"/>
+      <c r="DZ27" s="9"/>
+      <c r="EA27" s="9"/>
+      <c r="EB27" s="9"/>
+      <c r="EC27" s="9"/>
+      <c r="ED27" s="9"/>
+      <c r="EE27" s="9"/>
+      <c r="EF27" s="9"/>
+      <c r="EG27" s="9"/>
+      <c r="EH27" s="9"/>
+      <c r="EI27" s="9"/>
+      <c r="EJ27" s="9"/>
+      <c r="EK27" s="9"/>
+      <c r="EL27" s="9"/>
+      <c r="EM27" s="9"/>
+      <c r="EN27" s="9"/>
+      <c r="EO27" s="9"/>
+      <c r="EP27" s="9"/>
+      <c r="EQ27" s="9"/>
+      <c r="ER27" s="9"/>
+      <c r="ES27" s="9"/>
+      <c r="ET27" s="9"/>
+      <c r="EU27" s="9"/>
+      <c r="EV27" s="9"/>
+      <c r="EW27" s="9"/>
+      <c r="EX27" s="9"/>
+      <c r="EY27" s="9"/>
+      <c r="EZ27" s="9"/>
+      <c r="FA27" s="9"/>
+      <c r="FB27" s="9"/>
+      <c r="FC27" s="9"/>
+      <c r="FD27" s="9"/>
+      <c r="FE27" s="9"/>
+      <c r="FF27" s="9"/>
+      <c r="FG27" s="9"/>
+      <c r="FH27" s="9"/>
+      <c r="FI27" s="9"/>
+      <c r="FJ27" s="9"/>
+      <c r="FK27" s="9"/>
+      <c r="FL27" s="9"/>
+      <c r="FM27" s="9"/>
+      <c r="FN27" s="9"/>
+      <c r="FO27" s="9"/>
+      <c r="FP27" s="9"/>
+      <c r="FQ27" s="9"/>
+      <c r="FR27" s="9"/>
+      <c r="FS27" s="9"/>
+      <c r="FT27" s="9"/>
+      <c r="FU27" s="9"/>
+      <c r="FV27" s="9"/>
+      <c r="FW27" s="9"/>
+      <c r="FX27" s="9"/>
+      <c r="FY27" s="9"/>
+      <c r="FZ27" s="9"/>
+      <c r="GA27" s="9"/>
+      <c r="GB27" s="9"/>
+      <c r="GC27" s="9"/>
+      <c r="GD27" s="9"/>
+      <c r="GE27" s="9"/>
+      <c r="GF27" s="9"/>
+      <c r="GG27" s="9"/>
+      <c r="GH27" s="9"/>
+      <c r="GI27" s="9"/>
+      <c r="GJ27" s="9"/>
+      <c r="GK27" s="9"/>
+      <c r="GL27" s="9"/>
+      <c r="GM27" s="9"/>
+      <c r="GN27" s="9"/>
+      <c r="GO27" s="9"/>
+      <c r="GP27" s="9"/>
+      <c r="GQ27" s="9"/>
+      <c r="GR27" s="9"/>
+      <c r="GS27" s="9"/>
+      <c r="GT27" s="9"/>
+      <c r="GU27" s="9"/>
+      <c r="GV27" s="9"/>
+      <c r="GW27" s="9"/>
+      <c r="GX27" s="9"/>
+      <c r="GY27" s="9"/>
+      <c r="GZ27" s="9"/>
+      <c r="HA27" s="9"/>
+      <c r="HB27" s="9"/>
+      <c r="HC27" s="9"/>
+      <c r="HD27" s="9"/>
+      <c r="HE27" s="9"/>
+      <c r="HF27" s="9"/>
+      <c r="HG27" s="9"/>
+      <c r="HH27" s="9"/>
+      <c r="HI27" s="9"/>
+      <c r="HJ27" s="9"/>
+      <c r="HK27" s="9"/>
+      <c r="HL27" s="9"/>
+      <c r="HM27" s="9"/>
+      <c r="HN27" s="9"/>
+      <c r="HO27" s="9"/>
+      <c r="HP27" s="9"/>
+      <c r="HQ27" s="9"/>
+      <c r="HR27" s="9"/>
+      <c r="HS27" s="9"/>
+      <c r="HT27" s="9"/>
+      <c r="HU27" s="9"/>
+      <c r="HV27" s="9"/>
+      <c r="HW27" s="9"/>
+      <c r="HX27" s="9"/>
+      <c r="HY27" s="9"/>
+      <c r="HZ27" s="9"/>
+      <c r="IA27" s="9"/>
+      <c r="IB27" s="9"/>
+      <c r="IC27" s="9"/>
+      <c r="ID27" s="9"/>
+      <c r="IE27" s="9"/>
+      <c r="IF27" s="9"/>
+      <c r="IG27" s="9"/>
+      <c r="IH27" s="9"/>
+      <c r="II27" s="9"/>
+      <c r="IJ27" s="9"/>
+      <c r="IK27" s="9"/>
+      <c r="IL27" s="9"/>
+      <c r="IM27" s="9"/>
+      <c r="IN27" s="9"/>
+      <c r="IO27" s="9"/>
+      <c r="IP27" s="9"/>
+      <c r="IQ27" s="9"/>
+      <c r="IR27" s="9"/>
+      <c r="IS27" s="9"/>
+      <c r="IT27" s="9"/>
+      <c r="IU27" s="9"/>
+      <c r="IV27" s="9"/>
+      <c r="IW27" s="9"/>
+      <c r="IX27" s="9"/>
+      <c r="IY27" s="9"/>
+      <c r="IZ27" s="9"/>
+      <c r="JA27" s="9"/>
+      <c r="JB27" s="9"/>
+      <c r="JC27" s="9"/>
+      <c r="JD27" s="9"/>
+      <c r="JE27" s="9"/>
+      <c r="JF27" s="9"/>
+      <c r="JG27" s="9"/>
+      <c r="JH27" s="9"/>
+      <c r="JI27" s="9"/>
+      <c r="JJ27" s="9"/>
+      <c r="JK27" s="9"/>
+      <c r="JL27" s="9"/>
+      <c r="JM27" s="9"/>
+      <c r="JN27" s="9"/>
+      <c r="JO27" s="9"/>
+      <c r="JP27" s="9"/>
+      <c r="JQ27" s="9"/>
+      <c r="JR27" s="9"/>
+      <c r="JS27" s="9"/>
+      <c r="JT27" s="9"/>
+      <c r="JU27" s="9"/>
+      <c r="JV27" s="9"/>
+      <c r="JW27" s="9"/>
+      <c r="JX27" s="9"/>
+      <c r="JY27" s="9"/>
+      <c r="JZ27" s="9"/>
+      <c r="KA27" s="9"/>
+      <c r="KB27" s="9"/>
+      <c r="KC27" s="9"/>
+      <c r="KD27" s="9"/>
+      <c r="KE27" s="9"/>
+      <c r="KF27" s="9"/>
+      <c r="KG27" s="9"/>
+      <c r="KH27" s="9"/>
+      <c r="KI27" s="9"/>
+      <c r="KJ27" s="9"/>
+      <c r="KK27" s="9"/>
+      <c r="KL27" s="9"/>
+      <c r="KM27" s="9"/>
+      <c r="KN27" s="9"/>
+      <c r="KO27" s="9"/>
+      <c r="KP27" s="9"/>
+      <c r="KQ27" s="9"/>
+      <c r="KR27" s="9"/>
+      <c r="KS27" s="9"/>
+      <c r="KT27" s="9"/>
+      <c r="KU27" s="9"/>
+      <c r="KV27" s="9"/>
+      <c r="KW27" s="9"/>
+      <c r="KX27" s="9"/>
+      <c r="KY27" s="9"/>
+      <c r="KZ27" s="9"/>
+      <c r="LA27" s="9"/>
+      <c r="LB27" s="9"/>
+      <c r="LC27" s="9"/>
+      <c r="LD27" s="9"/>
+      <c r="LE27" s="9"/>
+      <c r="LF27" s="9"/>
+      <c r="LG27" s="9"/>
+      <c r="LH27" s="9"/>
+      <c r="LI27" s="9"/>
+      <c r="LJ27" s="9"/>
+      <c r="LK27" s="9"/>
+      <c r="LL27" s="9"/>
+      <c r="LM27" s="9"/>
+      <c r="LN27" s="9"/>
+      <c r="LO27" s="9"/>
+      <c r="LP27" s="9"/>
+      <c r="LQ27" s="9"/>
+      <c r="LR27" s="9"/>
+      <c r="LS27" s="9"/>
+      <c r="LT27" s="9"/>
+      <c r="LU27" s="9"/>
+      <c r="LV27" s="9"/>
+      <c r="LW27" s="9"/>
+      <c r="LX27" s="9"/>
+      <c r="LY27" s="9"/>
+      <c r="LZ27" s="9"/>
+      <c r="MA27" s="9"/>
+      <c r="MB27" s="9"/>
+      <c r="MC27" s="9"/>
+      <c r="MD27" s="9"/>
+      <c r="ME27" s="9"/>
+      <c r="MF27" s="9"/>
+      <c r="MG27" s="9"/>
+      <c r="MH27" s="9"/>
+      <c r="MI27" s="9"/>
+      <c r="MJ27" s="9"/>
+      <c r="MK27" s="9"/>
+      <c r="ML27" s="9"/>
+      <c r="MM27" s="9"/>
+      <c r="MN27" s="9"/>
+      <c r="MO27" s="9"/>
+      <c r="MP27" s="9"/>
+      <c r="MQ27" s="9"/>
+      <c r="MR27" s="9"/>
+      <c r="MS27" s="9"/>
+      <c r="MT27" s="9"/>
+      <c r="MU27" s="9"/>
+      <c r="MV27" s="9"/>
+      <c r="MW27" s="9"/>
+      <c r="MX27" s="9"/>
+      <c r="MY27" s="9"/>
+      <c r="MZ27" s="9"/>
+      <c r="NA27" s="9"/>
+      <c r="NB27" s="9"/>
+      <c r="NC27" s="9"/>
+      <c r="ND27" s="9"/>
+      <c r="NE27" s="9"/>
+      <c r="NF27" s="9"/>
+      <c r="NG27" s="9"/>
+      <c r="NH27" s="9"/>
+      <c r="NI27" s="9"/>
+      <c r="NJ27" s="9"/>
+      <c r="NK27" s="9"/>
+      <c r="NL27" s="9"/>
+      <c r="NM27" s="9"/>
+      <c r="NN27" s="9"/>
+      <c r="NO27" s="9"/>
+      <c r="NP27" s="9"/>
+      <c r="NQ27" s="9"/>
+      <c r="NR27" s="9"/>
+      <c r="NS27" s="9"/>
+      <c r="NT27" s="9"/>
+      <c r="NU27" s="9"/>
+      <c r="NV27" s="9"/>
+      <c r="NW27" s="9"/>
+      <c r="NX27" s="9"/>
+      <c r="NY27" s="9"/>
+      <c r="NZ27" s="9"/>
+      <c r="OA27" s="9"/>
+      <c r="OB27" s="9"/>
+      <c r="OC27" s="9"/>
+      <c r="OD27" s="9"/>
+      <c r="OE27" s="9"/>
+      <c r="OF27" s="9"/>
+      <c r="OG27" s="9"/>
+      <c r="OH27" s="9"/>
+      <c r="OI27" s="9"/>
+      <c r="OJ27" s="9"/>
+      <c r="OK27" s="9"/>
+      <c r="OL27" s="9"/>
+      <c r="OM27" s="9"/>
+      <c r="ON27" s="9"/>
+      <c r="OO27" s="9"/>
+      <c r="OP27" s="9"/>
+      <c r="OQ27" s="9"/>
+      <c r="OR27" s="9"/>
+      <c r="OS27" s="9"/>
+      <c r="OT27" s="9"/>
+      <c r="OU27" s="9"/>
+      <c r="OV27" s="9"/>
+      <c r="OW27" s="9"/>
+      <c r="OX27" s="9"/>
+      <c r="OY27" s="9"/>
+      <c r="OZ27" s="9"/>
+      <c r="PA27" s="9"/>
+      <c r="PB27" s="9"/>
+      <c r="PC27" s="9"/>
+      <c r="PD27" s="9"/>
+      <c r="PE27" s="9"/>
+      <c r="PF27" s="9"/>
+      <c r="PG27" s="9"/>
+      <c r="PH27" s="9"/>
+      <c r="PI27" s="9"/>
+      <c r="PJ27" s="9"/>
+      <c r="PK27" s="9"/>
+      <c r="PL27" s="9"/>
+      <c r="PM27" s="9"/>
+      <c r="PN27" s="9"/>
+      <c r="PO27" s="9"/>
+      <c r="PP27" s="9"/>
+      <c r="PQ27" s="9"/>
+      <c r="PR27" s="9"/>
+      <c r="PS27" s="9"/>
+      <c r="PT27" s="9"/>
+      <c r="PU27" s="9"/>
+      <c r="PV27" s="9"/>
+      <c r="PW27" s="9"/>
+      <c r="PX27" s="9"/>
+      <c r="PY27" s="9"/>
+      <c r="PZ27" s="9"/>
+      <c r="QA27" s="9"/>
+      <c r="QB27" s="9"/>
+      <c r="QC27" s="9"/>
+      <c r="QD27" s="9"/>
+      <c r="QE27" s="9"/>
+      <c r="QF27" s="9"/>
+      <c r="QG27" s="9"/>
+      <c r="QH27" s="9"/>
+      <c r="QI27" s="9"/>
+      <c r="QJ27" s="9"/>
+      <c r="QK27" s="9"/>
+      <c r="QL27" s="9"/>
+      <c r="QM27" s="9"/>
+      <c r="QN27" s="9"/>
+      <c r="QO27" s="9"/>
+      <c r="QP27" s="9"/>
+      <c r="QQ27" s="9"/>
+      <c r="QR27" s="9"/>
+      <c r="QS27" s="9"/>
+      <c r="QT27" s="9"/>
+      <c r="QU27" s="9"/>
+      <c r="QV27" s="9"/>
+      <c r="QW27" s="9"/>
+      <c r="QX27" s="9"/>
+      <c r="QY27" s="9"/>
+      <c r="QZ27" s="9"/>
+      <c r="RA27" s="9"/>
+      <c r="RB27" s="9"/>
+      <c r="RC27" s="9"/>
+      <c r="RD27" s="9"/>
+      <c r="RE27" s="9"/>
+      <c r="RF27" s="9"/>
+      <c r="RG27" s="9"/>
+      <c r="RH27" s="9"/>
+      <c r="RI27" s="9"/>
+      <c r="RJ27" s="9"/>
+      <c r="RK27" s="9"/>
+      <c r="RL27" s="9"/>
+      <c r="RM27" s="9"/>
+      <c r="RN27" s="9"/>
+      <c r="RO27" s="9"/>
+      <c r="RP27" s="9"/>
+      <c r="RQ27" s="9"/>
+      <c r="RR27" s="9"/>
+      <c r="RS27" s="9"/>
+      <c r="RT27" s="9"/>
+      <c r="RU27" s="9"/>
+      <c r="RV27" s="9"/>
+      <c r="RW27" s="9"/>
+      <c r="RX27" s="9"/>
+      <c r="RY27" s="9"/>
+      <c r="RZ27" s="9"/>
+      <c r="SA27" s="9"/>
+      <c r="SB27" s="9"/>
+      <c r="SC27" s="9"/>
+      <c r="SD27" s="9"/>
+      <c r="SE27" s="9"/>
+      <c r="SF27" s="9"/>
+      <c r="SG27" s="9"/>
+      <c r="SH27" s="9"/>
+      <c r="SI27" s="9"/>
+      <c r="SJ27" s="9"/>
+      <c r="SK27" s="9"/>
+      <c r="SL27" s="9"/>
+      <c r="SM27" s="9"/>
+      <c r="SN27" s="9"/>
+      <c r="SO27" s="9"/>
+      <c r="SP27" s="9"/>
+      <c r="SQ27" s="9"/>
+      <c r="SR27" s="9"/>
+      <c r="SS27" s="9"/>
+      <c r="ST27" s="9"/>
+      <c r="SU27" s="9"/>
+      <c r="SV27" s="9"/>
+      <c r="SW27" s="9"/>
+      <c r="SX27" s="9"/>
+      <c r="SY27" s="9"/>
+      <c r="SZ27" s="9"/>
+      <c r="TA27" s="9"/>
+      <c r="TB27" s="9"/>
+      <c r="TC27" s="9"/>
+      <c r="TD27" s="9"/>
+      <c r="TE27" s="9"/>
+      <c r="TF27" s="9"/>
+      <c r="TG27" s="9"/>
+      <c r="TH27" s="9"/>
+      <c r="TI27" s="9"/>
+      <c r="TJ27" s="9"/>
+      <c r="TK27" s="9"/>
+      <c r="TL27" s="9"/>
+      <c r="TM27" s="9"/>
+      <c r="TN27" s="9"/>
+      <c r="TO27" s="9"/>
+      <c r="TP27" s="9"/>
+      <c r="TQ27" s="9"/>
+      <c r="TR27" s="9"/>
+      <c r="TS27" s="9"/>
+      <c r="TT27" s="9"/>
+      <c r="TU27" s="9"/>
+      <c r="TV27" s="9"/>
+      <c r="TW27" s="9"/>
+      <c r="TX27" s="9"/>
+      <c r="TY27" s="9"/>
+      <c r="TZ27" s="9"/>
+      <c r="UA27" s="9"/>
+      <c r="UB27" s="9"/>
+      <c r="UC27" s="9"/>
+      <c r="UD27" s="9"/>
+      <c r="UE27" s="9"/>
+      <c r="UF27" s="9"/>
+      <c r="UG27" s="9"/>
+      <c r="UH27" s="9"/>
+      <c r="UI27" s="9"/>
+      <c r="UJ27" s="9"/>
+      <c r="UK27" s="9"/>
+      <c r="UL27" s="9"/>
+      <c r="UM27" s="9"/>
+      <c r="UN27" s="9"/>
+      <c r="UO27" s="9"/>
+      <c r="UP27" s="9"/>
+      <c r="UQ27" s="9"/>
+      <c r="UR27" s="9"/>
+      <c r="US27" s="9"/>
+      <c r="UT27" s="9"/>
+      <c r="UU27" s="9"/>
+      <c r="UV27" s="9"/>
+      <c r="UW27" s="9"/>
+      <c r="UX27" s="9"/>
+      <c r="UY27" s="9"/>
+      <c r="UZ27" s="9"/>
+      <c r="VA27" s="9"/>
+      <c r="VB27" s="9"/>
+      <c r="VC27" s="9"/>
+      <c r="VD27" s="9"/>
+      <c r="VE27" s="9"/>
+      <c r="VF27" s="9"/>
+      <c r="VG27" s="9"/>
+      <c r="VH27" s="9"/>
+      <c r="VI27" s="9"/>
+      <c r="VJ27" s="9"/>
+      <c r="VK27" s="9"/>
+      <c r="VL27" s="9"/>
+      <c r="VM27" s="9"/>
+      <c r="VN27" s="9"/>
+      <c r="VO27" s="9"/>
+      <c r="VP27" s="9"/>
+      <c r="VQ27" s="9"/>
+      <c r="VR27" s="9"/>
+      <c r="VS27" s="9"/>
+      <c r="VT27" s="9"/>
+      <c r="VU27" s="9"/>
+      <c r="VV27" s="9"/>
+      <c r="VW27" s="9"/>
+      <c r="VX27" s="9"/>
+      <c r="VY27" s="9"/>
+      <c r="VZ27" s="9"/>
+      <c r="WA27" s="9"/>
+      <c r="WB27" s="9"/>
+      <c r="WC27" s="9"/>
+      <c r="WD27" s="9"/>
+      <c r="WE27" s="9"/>
+      <c r="WF27" s="9"/>
+      <c r="WG27" s="9"/>
+      <c r="WH27" s="9"/>
+      <c r="WI27" s="9"/>
+      <c r="WJ27" s="9"/>
+      <c r="WK27" s="9"/>
+      <c r="WL27" s="9"/>
+      <c r="WM27" s="9"/>
+      <c r="WN27" s="9"/>
+      <c r="WO27" s="9"/>
+      <c r="WP27" s="9"/>
+      <c r="WQ27" s="9"/>
+      <c r="WR27" s="9"/>
+      <c r="WS27" s="9"/>
+      <c r="WT27" s="9"/>
+      <c r="WU27" s="9"/>
+      <c r="WV27" s="9"/>
+      <c r="WW27" s="9"/>
+      <c r="WX27" s="9"/>
+      <c r="WY27" s="9"/>
+      <c r="WZ27" s="9"/>
+      <c r="XA27" s="9"/>
+      <c r="XB27" s="9"/>
+      <c r="XC27" s="9"/>
+      <c r="XD27" s="9"/>
+      <c r="XE27" s="9"/>
+      <c r="XF27" s="9"/>
+      <c r="XG27" s="9"/>
+      <c r="XH27" s="9"/>
+      <c r="XI27" s="9"/>
+      <c r="XJ27" s="9"/>
+      <c r="XK27" s="9"/>
+      <c r="XL27" s="9"/>
+      <c r="XM27" s="9"/>
+      <c r="XN27" s="9"/>
+      <c r="XO27" s="9"/>
+      <c r="XP27" s="9"/>
+      <c r="XQ27" s="9"/>
+      <c r="XR27" s="9"/>
+      <c r="XS27" s="9"/>
+      <c r="XT27" s="9"/>
+      <c r="XU27" s="9"/>
+      <c r="XV27" s="9"/>
+      <c r="XW27" s="9"/>
+      <c r="XX27" s="9"/>
+      <c r="XY27" s="9"/>
+      <c r="XZ27" s="9"/>
+      <c r="YA27" s="9"/>
+      <c r="YB27" s="9"/>
+      <c r="YC27" s="9"/>
+      <c r="YD27" s="9"/>
+      <c r="YE27" s="9"/>
+      <c r="YF27" s="9"/>
+      <c r="YG27" s="9"/>
+      <c r="YH27" s="9"/>
+      <c r="YI27" s="9"/>
+      <c r="YJ27" s="9"/>
+      <c r="YK27" s="9"/>
+      <c r="YL27" s="9"/>
+      <c r="YM27" s="9"/>
+      <c r="YN27" s="9"/>
+      <c r="YO27" s="9"/>
+      <c r="YP27" s="9"/>
+      <c r="YQ27" s="9"/>
+      <c r="YR27" s="9"/>
+      <c r="YS27" s="9"/>
+      <c r="YT27" s="9"/>
+      <c r="YU27" s="9"/>
+      <c r="YV27" s="9"/>
+      <c r="YW27" s="9"/>
+      <c r="YX27" s="9"/>
+      <c r="YY27" s="9"/>
+      <c r="YZ27" s="9"/>
+      <c r="ZA27" s="9"/>
+      <c r="ZB27" s="9"/>
+      <c r="ZC27" s="9"/>
+      <c r="ZD27" s="9"/>
+      <c r="ZE27" s="9"/>
+      <c r="ZF27" s="9"/>
+      <c r="ZG27" s="9"/>
+      <c r="ZH27" s="9"/>
+      <c r="ZI27" s="9"/>
+      <c r="ZJ27" s="9"/>
+      <c r="ZK27" s="9"/>
+      <c r="ZL27" s="9"/>
+      <c r="ZM27" s="9"/>
+      <c r="ZN27" s="9"/>
+      <c r="ZO27" s="9"/>
+      <c r="ZP27" s="9"/>
+      <c r="ZQ27" s="9"/>
+      <c r="ZR27" s="9"/>
+      <c r="ZS27" s="9"/>
+      <c r="ZT27" s="9"/>
+      <c r="ZU27" s="9"/>
+      <c r="ZV27" s="9"/>
+      <c r="ZW27" s="9"/>
+      <c r="ZX27" s="9"/>
+      <c r="ZY27" s="9"/>
+      <c r="ZZ27" s="9"/>
+      <c r="AAA27" s="9"/>
+      <c r="AAB27" s="9"/>
+      <c r="AAC27" s="9"/>
+      <c r="AAD27" s="9"/>
+      <c r="AAE27" s="9"/>
+      <c r="AAF27" s="9"/>
+      <c r="AAG27" s="9"/>
+      <c r="AAH27" s="9"/>
+      <c r="AAI27" s="9"/>
+      <c r="AAJ27" s="9"/>
+      <c r="AAK27" s="9"/>
+      <c r="AAL27" s="9"/>
+      <c r="AAM27" s="9"/>
+      <c r="AAN27" s="9"/>
+      <c r="AAO27" s="9"/>
+      <c r="AAP27" s="9"/>
+      <c r="AAQ27" s="9"/>
+      <c r="AAR27" s="9"/>
+      <c r="AAS27" s="9"/>
+      <c r="AAT27" s="9"/>
+      <c r="AAU27" s="9"/>
+      <c r="AAV27" s="9"/>
+      <c r="AAW27" s="9"/>
+      <c r="AAX27" s="9"/>
+      <c r="AAY27" s="9"/>
+      <c r="AAZ27" s="9"/>
+      <c r="ABA27" s="9"/>
+      <c r="ABB27" s="9"/>
+      <c r="ABC27" s="9"/>
+      <c r="ABD27" s="9"/>
+      <c r="ABE27" s="9"/>
+      <c r="ABF27" s="9"/>
+      <c r="ABG27" s="9"/>
+      <c r="ABH27" s="9"/>
+      <c r="ABI27" s="9"/>
+      <c r="ABJ27" s="9"/>
+      <c r="ABK27" s="9"/>
+      <c r="ABL27" s="9"/>
+      <c r="ABM27" s="9"/>
+      <c r="ABN27" s="9"/>
+      <c r="ABO27" s="9"/>
+      <c r="ABP27" s="9"/>
+      <c r="ABQ27" s="9"/>
+      <c r="ABR27" s="9"/>
+      <c r="ABS27" s="9"/>
+      <c r="ABT27" s="9"/>
+      <c r="ABU27" s="9"/>
+      <c r="ABV27" s="9"/>
+      <c r="ABW27" s="9"/>
+      <c r="ABX27" s="9"/>
+      <c r="ABY27" s="9"/>
+      <c r="ABZ27" s="9"/>
+      <c r="ACA27" s="9"/>
+      <c r="ACB27" s="9"/>
+      <c r="ACC27" s="9"/>
+      <c r="ACD27" s="9"/>
+      <c r="ACE27" s="9"/>
+      <c r="ACF27" s="9"/>
+      <c r="ACG27" s="9"/>
+      <c r="ACH27" s="9"/>
+      <c r="ACI27" s="9"/>
+      <c r="ACJ27" s="9"/>
+      <c r="ACK27" s="9"/>
+      <c r="ACL27" s="9"/>
+      <c r="ACM27" s="9"/>
+      <c r="ACN27" s="9"/>
+      <c r="ACO27" s="9"/>
+      <c r="ACP27" s="9"/>
+      <c r="ACQ27" s="9"/>
+      <c r="ACR27" s="9"/>
+      <c r="ACS27" s="9"/>
+      <c r="ACT27" s="9"/>
+      <c r="ACU27" s="9"/>
+      <c r="ACV27" s="9"/>
+      <c r="ACW27" s="9"/>
+      <c r="ACX27" s="9"/>
+      <c r="ACY27" s="9"/>
+      <c r="ACZ27" s="9"/>
+      <c r="ADA27" s="9"/>
+      <c r="ADB27" s="9"/>
+      <c r="ADC27" s="9"/>
+      <c r="ADD27" s="9"/>
+      <c r="ADE27" s="9"/>
+      <c r="ADF27" s="9"/>
+      <c r="ADG27" s="9"/>
+      <c r="ADH27" s="9"/>
+      <c r="ADI27" s="9"/>
+      <c r="ADJ27" s="9"/>
+      <c r="ADK27" s="9"/>
+      <c r="ADL27" s="9"/>
+      <c r="ADM27" s="9"/>
+      <c r="ADN27" s="9"/>
+      <c r="ADO27" s="9"/>
+      <c r="ADP27" s="9"/>
+      <c r="ADQ27" s="9"/>
+      <c r="ADR27" s="9"/>
+      <c r="ADS27" s="9"/>
+      <c r="ADT27" s="9"/>
+      <c r="ADU27" s="9"/>
+      <c r="ADV27" s="9"/>
+      <c r="ADW27" s="9"/>
+      <c r="ADX27" s="9"/>
+      <c r="ADY27" s="9"/>
+      <c r="ADZ27" s="9"/>
+      <c r="AEA27" s="9"/>
+      <c r="AEB27" s="9"/>
+      <c r="AEC27" s="9"/>
+      <c r="AED27" s="9"/>
+      <c r="AEE27" s="9"/>
+      <c r="AEF27" s="9"/>
+      <c r="AEG27" s="9"/>
+      <c r="AEH27" s="9"/>
+      <c r="AEI27" s="9"/>
+      <c r="AEJ27" s="9"/>
+      <c r="AEK27" s="9"/>
+      <c r="AEL27" s="9"/>
+      <c r="AEM27" s="9"/>
+      <c r="AEN27" s="9"/>
+      <c r="AEO27" s="9"/>
+      <c r="AEP27" s="9"/>
+      <c r="AEQ27" s="9"/>
+      <c r="AER27" s="9"/>
+      <c r="AES27" s="9"/>
+      <c r="AET27" s="9"/>
+      <c r="AEU27" s="9"/>
+      <c r="AEV27" s="9"/>
+      <c r="AEW27" s="9"/>
+      <c r="AEX27" s="9"/>
+      <c r="AEY27" s="9"/>
+      <c r="AEZ27" s="9"/>
+      <c r="AFA27" s="9"/>
+      <c r="AFB27" s="9"/>
+      <c r="AFC27" s="9"/>
+      <c r="AFD27" s="9"/>
+      <c r="AFE27" s="9"/>
+      <c r="AFF27" s="9"/>
+      <c r="AFG27" s="9"/>
+      <c r="AFH27" s="9"/>
+      <c r="AFI27" s="9"/>
+      <c r="AFJ27" s="9"/>
+      <c r="AFK27" s="9"/>
+      <c r="AFL27" s="9"/>
+      <c r="AFM27" s="9"/>
+      <c r="AFN27" s="9"/>
+      <c r="AFO27" s="9"/>
+      <c r="AFP27" s="9"/>
+      <c r="AFQ27" s="9"/>
+      <c r="AFR27" s="9"/>
+      <c r="AFS27" s="9"/>
+      <c r="AFT27" s="9"/>
+      <c r="AFU27" s="9"/>
+      <c r="AFV27" s="9"/>
+      <c r="AFW27" s="9"/>
+      <c r="AFX27" s="9"/>
+      <c r="AFY27" s="9"/>
+      <c r="AFZ27" s="9"/>
+      <c r="AGA27" s="9"/>
+      <c r="AGB27" s="9"/>
+      <c r="AGC27" s="9"/>
+      <c r="AGD27" s="9"/>
+      <c r="AGE27" s="9"/>
+      <c r="AGF27" s="9"/>
+      <c r="AGG27" s="9"/>
+      <c r="AGH27" s="9"/>
+      <c r="AGI27" s="9"/>
+      <c r="AGJ27" s="9"/>
+      <c r="AGK27" s="9"/>
+      <c r="AGL27" s="9"/>
+      <c r="AGM27" s="9"/>
+      <c r="AGN27" s="9"/>
+      <c r="AGO27" s="9"/>
+      <c r="AGP27" s="9"/>
+      <c r="AGQ27" s="9"/>
+      <c r="AGR27" s="9"/>
+      <c r="AGS27" s="9"/>
+      <c r="AGT27" s="9"/>
+      <c r="AGU27" s="9"/>
+      <c r="AGV27" s="9"/>
+      <c r="AGW27" s="9"/>
+      <c r="AGX27" s="9"/>
+      <c r="AGY27" s="9"/>
+      <c r="AGZ27" s="9"/>
+      <c r="AHA27" s="9"/>
+      <c r="AHB27" s="9"/>
+      <c r="AHC27" s="9"/>
+      <c r="AHD27" s="9"/>
+      <c r="AHE27" s="9"/>
+      <c r="AHF27" s="9"/>
+      <c r="AHG27" s="9"/>
+      <c r="AHH27" s="9"/>
+      <c r="AHI27" s="9"/>
+      <c r="AHJ27" s="9"/>
+      <c r="AHK27" s="9"/>
+      <c r="AHL27" s="9"/>
+      <c r="AHM27" s="9"/>
+      <c r="AHN27" s="9"/>
+      <c r="AHO27" s="9"/>
+      <c r="AHP27" s="9"/>
+      <c r="AHQ27" s="9"/>
+      <c r="AHR27" s="9"/>
+      <c r="AHS27" s="9"/>
+      <c r="AHT27" s="9"/>
+      <c r="AHU27" s="9"/>
+      <c r="AHV27" s="9"/>
+      <c r="AHW27" s="9"/>
+      <c r="AHX27" s="9"/>
+      <c r="AHY27" s="9"/>
+      <c r="AHZ27" s="9"/>
+      <c r="AIA27" s="9"/>
+      <c r="AIB27" s="9"/>
+      <c r="AIC27" s="9"/>
+      <c r="AID27" s="9"/>
+      <c r="AIE27" s="9"/>
+      <c r="AIF27" s="9"/>
+      <c r="AIG27" s="9"/>
+      <c r="AIH27" s="9"/>
+      <c r="AII27" s="9"/>
+      <c r="AIJ27" s="9"/>
+      <c r="AIK27" s="9"/>
+      <c r="AIL27" s="9"/>
+      <c r="AIM27" s="9"/>
+      <c r="AIN27" s="9"/>
+      <c r="AIO27" s="9"/>
+      <c r="AIP27" s="9"/>
+      <c r="AIQ27" s="9"/>
+      <c r="AIR27" s="9"/>
+      <c r="AIS27" s="9"/>
+      <c r="AIT27" s="9"/>
+      <c r="AIU27" s="9"/>
+      <c r="AIV27" s="9"/>
+      <c r="AIW27" s="9"/>
+      <c r="AIX27" s="9"/>
+      <c r="AIY27" s="9"/>
+      <c r="AIZ27" s="9"/>
+      <c r="AJA27" s="9"/>
+      <c r="AJB27" s="9"/>
+      <c r="AJC27" s="9"/>
+      <c r="AJD27" s="9"/>
+      <c r="AJE27" s="9"/>
+      <c r="AJF27" s="9"/>
+      <c r="AJG27" s="9"/>
+      <c r="AJH27" s="9"/>
+      <c r="AJI27" s="9"/>
+      <c r="AJJ27" s="9"/>
+      <c r="AJK27" s="9"/>
+      <c r="AJL27" s="9"/>
+      <c r="AJM27" s="9"/>
+      <c r="AJN27" s="9"/>
+      <c r="AJO27" s="9"/>
+      <c r="AJP27" s="9"/>
+      <c r="AJQ27" s="9"/>
+      <c r="AJR27" s="9"/>
+      <c r="AJS27" s="9"/>
+      <c r="AJT27" s="9"/>
+      <c r="AJU27" s="9"/>
+      <c r="AJV27" s="9"/>
+      <c r="AJW27" s="9"/>
+      <c r="AJX27" s="9"/>
+      <c r="AJY27" s="9"/>
+      <c r="AJZ27" s="9"/>
+      <c r="AKA27" s="9"/>
+      <c r="AKB27" s="9"/>
+      <c r="AKC27" s="9"/>
+      <c r="AKD27" s="9"/>
+      <c r="AKE27" s="9"/>
+      <c r="AKF27" s="9"/>
+      <c r="AKG27" s="9"/>
+      <c r="AKH27" s="9"/>
+      <c r="AKI27" s="9"/>
+      <c r="AKJ27" s="9"/>
+      <c r="AKK27" s="9"/>
+      <c r="AKL27" s="9"/>
+      <c r="AKM27" s="9"/>
+      <c r="AKN27" s="9"/>
+      <c r="AKO27" s="9"/>
+      <c r="AKP27" s="9"/>
+      <c r="AKQ27" s="9"/>
+      <c r="AKR27" s="9"/>
+      <c r="AKS27" s="9"/>
+      <c r="AKT27" s="9"/>
+      <c r="AKU27" s="9"/>
+      <c r="AKV27" s="9"/>
+      <c r="AKW27" s="9"/>
+      <c r="AKX27" s="9"/>
+      <c r="AKY27" s="9"/>
+      <c r="AKZ27" s="9"/>
+      <c r="ALA27" s="9"/>
+      <c r="ALB27" s="9"/>
+      <c r="ALC27" s="9"/>
+      <c r="ALD27" s="9"/>
+      <c r="ALE27" s="9"/>
+      <c r="ALF27" s="9"/>
+      <c r="ALG27" s="9"/>
+      <c r="ALH27" s="9"/>
+      <c r="ALI27" s="9"/>
+      <c r="ALJ27" s="9"/>
+      <c r="ALK27" s="9"/>
+      <c r="ALL27" s="9"/>
+      <c r="ALM27" s="9"/>
+      <c r="ALN27" s="9"/>
+      <c r="ALO27" s="9"/>
+      <c r="ALP27" s="9"/>
+      <c r="ALQ27" s="9"/>
+      <c r="ALR27" s="9"/>
+      <c r="ALS27" s="9"/>
+      <c r="ALT27" s="9"/>
+      <c r="ALU27" s="9"/>
+      <c r="ALV27" s="9"/>
+      <c r="ALW27" s="9"/>
+      <c r="ALX27" s="9"/>
+      <c r="ALY27" s="9"/>
+      <c r="ALZ27" s="9"/>
+      <c r="AMA27" s="9"/>
+      <c r="AMB27" s="9"/>
+      <c r="AMC27" s="9"/>
+      <c r="AMD27" s="9"/>
+      <c r="AME27" s="9"/>
+      <c r="AMF27" s="9"/>
+      <c r="AMG27" s="9"/>
+      <c r="AMH27" s="9"/>
+      <c r="AMI27" s="9"/>
+      <c r="AMJ27" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/_data/faculty.xlsx
+++ b/_data/faculty.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="288">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -851,6 +851,39 @@
   </si>
   <si>
     <t xml:space="preserve">ZheXu.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancy Cooke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ncooke@asu.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study the characteristics of human-centered AI and Robotic teammates; develop metrics and measures to evaluate human-AI-robot teaming effectiveness; address AI/robot-related ethical issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human-Robot,Design,Dynamics,AI-and-learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center for Human, Artificial Intelligence, and Robot Teaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://globalsecurity.asu.edu/expertise/human-artificial-intelligence-and-robot-teaming/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We take a multidisciplinary approach to develop and evaluate effective human-AI-robot teams, as well as address related legal and ethical issues through human-in-the-loop studies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ncooke.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asu-ghost-lab.jpg</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1014,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1019,6 +1052,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1100,10 +1141,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ27"/>
+  <dimension ref="A1:AMJ28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O28" activeCellId="0" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1114,7 +1155,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="38.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="40.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="80.57"/>
@@ -3326,10 +3367,56 @@
       <c r="AMI27" s="9"/>
       <c r="AMJ27" s="9"/>
     </row>
+    <row r="28" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="danaukes@asu.edu"/>
     <hyperlink ref="K27" r:id="rId2" display="https://sites.google.com/site/zhexudavid00710"/>
+    <hyperlink ref="E28" r:id="rId3" display="ncooke@asu.edu"/>
+    <hyperlink ref="K28" r:id="rId4" display="https://globalsecurity.asu.edu/expertise/human-artificial-intelligence-and-robot-teaming/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/_data/faculty.xlsx
+++ b/_data/faculty.xlsx
@@ -883,7 +883,7 @@
     <t xml:space="preserve">ncooke.png</t>
   </si>
   <si>
-    <t xml:space="preserve">asu-ghost-lab.jpg</t>
+    <t xml:space="preserve">asu-ghost-lab.JPG</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O28" activeCellId="0" sqref="O28"/>
+      <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
